--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testData9jan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testData9jan\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F542006A-317E-4D11-9104-FB6EDB6C94DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA4C92B-BAD5-4B19-B5A0-7933C07B8A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -150,7 +150,7 @@
     <t>HL_SUPERVISOR2</t>
   </si>
   <si>
-    <t>HLSupervisor2ContraCosta</t>
+    <t>HLSupervisorContraCosta2</t>
   </si>
 </sst>
 </file>
@@ -542,7 +542,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1465,6 +1465,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -1472,15 +1481,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1503,6 +1503,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1510,12 +1518,4 @@
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testData9jan\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testData9jan\upload\latestUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA4C92B-BAD5-4B19-B5A0-7933C07B8A3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87800B0-A890-4E75-A4FD-51BDAABB1C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -634,9 +634,10 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
@@ -1248,6 +1249,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1464,26 +1484,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1500,22 +1519,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testData9jan\upload\latestUpdate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata15jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87800B0-A890-4E75-A4FD-51BDAABB1C70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616FDCF9-7B69-4B7E-A5D7-D13848A1371A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
     <sheet name="Logout" sheetId="6" r:id="rId2"/>
+    <sheet name="Home" sheetId="8" r:id="rId3"/>
+    <sheet name="ApprovalAuditHistory" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="115">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -147,17 +149,248 @@
     <t>testT4244</t>
   </si>
   <si>
-    <t>HL_SUPERVISOR2</t>
-  </si>
-  <si>
-    <t>HLSupervisorContraCosta2</t>
+    <t>NEW_VALUE</t>
+  </si>
+  <si>
+    <t>ASSIGNED_TO_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>STEP_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>RECALL_VERIFY</t>
+  </si>
+  <si>
+    <t>NEW_VALUE_VERIFY</t>
+  </si>
+  <si>
+    <t>ORIGINAL_VALUE_VERIFY</t>
+  </si>
+  <si>
+    <t>USER_VERIFY</t>
+  </si>
+  <si>
+    <t>FIELD_VERIFY</t>
+  </si>
+  <si>
+    <t>DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>AUDIT_HISTORY</t>
+  </si>
+  <si>
+    <t>SCREENING_HISTORY</t>
+  </si>
+  <si>
+    <t>AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>APPROVAL_AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>New Providers created in past 120 days</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>Last Modified Date</t>
+  </si>
+  <si>
+    <t>Service Category</t>
+  </si>
+  <si>
+    <t>Service Type Description</t>
+  </si>
+  <si>
+    <t>Service Type Name</t>
+  </si>
+  <si>
+    <t>Service Types</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Related To</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Current Task Assignments</t>
+  </si>
+  <si>
+    <t>NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>NEWPROVIDER120DAYS_VERIFY</t>
+  </si>
+  <si>
+    <t>MYORGANIZATION</t>
+  </si>
+  <si>
+    <t>MYTASKLIST</t>
+  </si>
+  <si>
+    <t>LASTMODIEFIEDDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICECATEGORY_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICETYPEDESCRIPTION_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICETYPENAME_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICETYPES_VERIFY</t>
+  </si>
+  <si>
+    <t>SOURCE_VERIFY</t>
+  </si>
+  <si>
+    <t>PRIORITY_VERIFY</t>
+  </si>
+  <si>
+    <t>RELATEDTO_VERIFY</t>
+  </si>
+  <si>
+    <t>SUBJECT_VERIFY</t>
+  </si>
+  <si>
+    <t>DUEDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>CURRENTTASKASSIGNMENT_VERIFY</t>
+  </si>
+  <si>
+    <t>PROVIDERSEARCH</t>
+  </si>
+  <si>
+    <t>FOCUSED_SEARCH_TAB</t>
+  </si>
+  <si>
+    <t>HOME_TAB</t>
+  </si>
+  <si>
+    <t>ORGANIZATIONS</t>
+  </si>
+  <si>
+    <t>SHOWNAVIGATIONMENUE</t>
+  </si>
+  <si>
+    <t>RECORD_ID</t>
+  </si>
+  <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>SCREENINGS_WITHIN_MY_COUNTY</t>
+  </si>
+  <si>
+    <t>REPORTS</t>
+  </si>
+  <si>
+    <t>CONTACT_LOG</t>
+  </si>
+  <si>
+    <t>HOUSEHOLDS</t>
+  </si>
+  <si>
+    <t>PERSON_SEARCH</t>
+  </si>
+  <si>
+    <t>SERVICE_TYPES</t>
+  </si>
+  <si>
+    <t>SERVICE_NAMES</t>
+  </si>
+  <si>
+    <t>SERVICE_CATEGORIES</t>
+  </si>
+  <si>
+    <t>PERSONS</t>
+  </si>
+  <si>
+    <t>FOLIO</t>
+  </si>
+  <si>
+    <t>SCREENINGS</t>
+  </si>
+  <si>
+    <t>SCR_BELL_NOTIFICATION</t>
+  </si>
+  <si>
+    <t>HOME</t>
+  </si>
+  <si>
+    <t>APP_NAV_MENU</t>
+  </si>
+  <si>
+    <t>MYLOCATION</t>
+  </si>
+  <si>
+    <t>NEWLOCATION120DAYS_VERIFY</t>
+  </si>
+  <si>
+    <t>New Locations created in past 120 days</t>
+  </si>
+  <si>
+    <t>ORGCATEGORY_VERIFY</t>
+  </si>
+  <si>
+    <t>LOCATIONCATEGORY_VERIFY</t>
+  </si>
+  <si>
+    <t>Organization Category</t>
+  </si>
+  <si>
+    <t>Location Category</t>
+  </si>
+  <si>
+    <t>SCR_ID1</t>
+  </si>
+  <si>
+    <t>SCR_ID2</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>FOLIO_ID1</t>
+  </si>
+  <si>
+    <t>testPOM</t>
+  </si>
+  <si>
+    <t>Screening History</t>
+  </si>
+  <si>
+    <t>Contra Costa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,8 +411,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000C0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2A00FF"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +471,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -211,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -225,6 +516,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -558,7 +865,7 @@
     <col min="9" max="9" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -586,11 +893,8 @@
       <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -607,7 +911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="3" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
@@ -624,7 +928,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -639,7 +943,7 @@
       </c>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -661,7 +965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -683,7 +987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -699,11 +1003,8 @@
       <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -720,7 +1021,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -737,7 +1038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>34</v>
       </c>
@@ -754,7 +1055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -771,7 +1072,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -788,7 +1089,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -807,7 +1108,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -826,7 +1127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
@@ -845,7 +1146,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>8</v>
       </c>
@@ -988,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1243,31 +1544,1376 @@
         <v>30</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
+  <dimension ref="A1:AS19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="33.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.1796875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="14.6328125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="20.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="9.1796875" style="4" customWidth="1"/>
+    <col min="26" max="26" width="30.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="15.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="20.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="26.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="27.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.36328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="8.90625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="X1" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y1" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH1" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="AJ1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL1" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO1" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR1" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS1" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="U2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ2" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AR2" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS2" s="16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG3" s="19"/>
+    </row>
+    <row r="4" spans="1:45" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z4" s="19"/>
+      <c r="AG4" s="20"/>
+    </row>
+    <row r="5" spans="1:45" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z5" s="22"/>
+      <c r="AG5" s="23"/>
+      <c r="AP5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ5" s="21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="21">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>2</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="22"/>
+      <c r="AG6" s="23"/>
+      <c r="AP6" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ6" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21">
+        <v>3</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z7" s="22"/>
+      <c r="AG7" s="23"/>
+      <c r="AP7" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AQ7" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z8" s="14"/>
+      <c r="AG8" s="15"/>
+    </row>
+    <row r="9" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z9" s="14"/>
+      <c r="AG9" s="15"/>
+    </row>
+    <row r="10" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="U10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z10" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN10" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO10" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="24"/>
+    </row>
+    <row r="12" spans="1:45" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="11">
+        <v>1</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z12" s="24"/>
+    </row>
+    <row r="13" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z13" s="15"/>
+      <c r="AG13" s="14"/>
+    </row>
+    <row r="14" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z14" s="15"/>
+      <c r="AG14" s="14"/>
+    </row>
+    <row r="15" spans="1:45" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE15" s="19"/>
+    </row>
+    <row r="16" spans="1:45" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE16" s="19"/>
+    </row>
+    <row r="17" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="V17" s="25"/>
+    </row>
+    <row r="18" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="5">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C0EF4-5C5D-4057-B6F9-0807F6421FD3}">
+  <dimension ref="A1:Q10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.90625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.81640625" style="4" customWidth="1"/>
+    <col min="11" max="12" width="19.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.81640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.1796875" style="4" customWidth="1"/>
+    <col min="18" max="16384" width="8.90625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="28">
+        <v>1</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="28">
+        <v>2</v>
+      </c>
+      <c r="C7" s="28">
+        <v>1</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="28">
+        <v>1</v>
+      </c>
+      <c r="C8" s="28">
+        <v>1</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -1484,25 +3130,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1519,4 +3166,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata15jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616FDCF9-7B69-4B7E-A5D7-D13848A1371A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B6FB3B-A836-43F7-BEE2-3366A6C1BEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -1291,7 +1291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1573,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
   <dimension ref="A1:AS19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2200,7 +2200,7 @@
         <v>29</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>29</v>
@@ -2213,11 +2213,11 @@
         <v>22</v>
       </c>
       <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
         <v>2</v>
       </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
       <c r="D14" s="5" t="s">
         <v>29</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>29</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>29</v>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata15jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B6FB3B-A836-43F7-BEE2-3366A6C1BEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC3DA6F-FFA8-4225-B02C-742F0D14D853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="115">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -452,7 +452,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +489,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -502,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -532,6 +538,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1573,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
   <dimension ref="A1:AS19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13:T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2205,6 +2212,12 @@
       <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="S13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T13" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="Z13" s="15"/>
       <c r="AG13" s="14"/>
     </row>
@@ -2229,6 +2242,12 @@
       </c>
       <c r="G14" s="5" t="s">
         <v>29</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="29" t="s">
+        <v>108</v>
       </c>
       <c r="Z14" s="15"/>
       <c r="AG14" s="14"/>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\25JAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2C7C24-07F4-4CC2-958D-2354DA052FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79271434-BD9F-4E07-9A1D-38E78B5E822B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="165">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1038,9 +1038,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1521,7 +1521,9 @@
       <c r="H18" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="38"/>
+      <c r="I18" s="38" t="s">
+        <v>35</v>
+      </c>
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
@@ -2194,7 +2196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
   <dimension ref="A1:BI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
@@ -5461,6 +5463,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
@@ -5468,15 +5479,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5499,6 +5501,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5506,12 +5516,4 @@
     <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\24jantestdata\25JAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79271434-BD9F-4E07-9A1D-38E78B5E822B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441D1560-8DC5-4F1B-8868-E613C83040D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="167">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -179,6 +179,21 @@
     <t>testT4148</t>
   </si>
   <si>
+    <t>CMManagerContraCosta</t>
+  </si>
+  <si>
+    <t>testFolioDataSetup3</t>
+  </si>
+  <si>
+    <t>testFolioDataSetup4</t>
+  </si>
+  <si>
+    <t>testT4748</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>PROFILE_ICON</t>
   </si>
   <si>
@@ -206,334 +221,325 @@
     <t>HOME</t>
   </si>
   <si>
+    <t>BELL_NOTIFICATION</t>
+  </si>
+  <si>
+    <t>SCREENINGS</t>
+  </si>
+  <si>
+    <t>FOLIO</t>
+  </si>
+  <si>
+    <t>PERSONS</t>
+  </si>
+  <si>
+    <t>ORGANIZATIONS</t>
+  </si>
+  <si>
+    <t>SERVICE_CATEGORIES</t>
+  </si>
+  <si>
+    <t>SERVICE_NAMES</t>
+  </si>
+  <si>
+    <t>SERVICE_TYPES</t>
+  </si>
+  <si>
+    <t>PERSON_SEARCH</t>
+  </si>
+  <si>
+    <t>HOUSEHOLDS</t>
+  </si>
+  <si>
+    <t>CONTACT_LOG</t>
+  </si>
+  <si>
+    <t>REPORTS</t>
+  </si>
+  <si>
+    <t>SCREENINGS_WITHIN_MY_COUNTY</t>
+  </si>
+  <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>RECORD_ID</t>
+  </si>
+  <si>
+    <t>NEW_CASE</t>
+  </si>
+  <si>
+    <t>SHOWNAVIGATIONMENUE</t>
+  </si>
+  <si>
+    <t>HOME_TAB</t>
+  </si>
+  <si>
+    <t>FOCUSED_SEARCH_TAB</t>
+  </si>
+  <si>
+    <t>PROVIDERSEARCH</t>
+  </si>
+  <si>
+    <t>CURRENTTASKASSIGNMENT_VERIFY</t>
+  </si>
+  <si>
+    <t>DUEDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>SUBJECT_VERIFY</t>
+  </si>
+  <si>
+    <t>RELATEDTO_VERIFY</t>
+  </si>
+  <si>
+    <t>PRIORITY_VERIFY</t>
+  </si>
+  <si>
+    <t>STATUS_VERIFY</t>
+  </si>
+  <si>
+    <t>SOURCE_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICETYPES_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICETYPENAME_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICETYPEDESCRIPTION_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICECATEGORY_VERIFY</t>
+  </si>
+  <si>
+    <t>LASTMODIEFIEDDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>MYTASKLIST</t>
+  </si>
+  <si>
+    <t>MYORGANIZATION</t>
+  </si>
+  <si>
+    <t>NEWPROVIDER120DAYS_VERIFY</t>
+  </si>
+  <si>
+    <t>NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>MYLOCATION</t>
+  </si>
+  <si>
+    <t>NEWLOCATION120DAYS_VERIFY</t>
+  </si>
+  <si>
+    <t>ORGCATEGORY_VERIFY</t>
+  </si>
+  <si>
+    <t>LOCATIONCATEGORY_VERIFY</t>
+  </si>
+  <si>
+    <t>CURRENTINVESTIGATIONASSIGNMENT_VERIFY</t>
+  </si>
+  <si>
+    <t>MYINVESTIGATIONASSIGNMENT_VERIFY</t>
+  </si>
+  <si>
+    <t>MYTEAMINVESTIGATIONASSIGNMENT_VERIFY</t>
+  </si>
+  <si>
+    <t>FOLIOREF_VERIFY</t>
+  </si>
+  <si>
+    <t>FOLIO_NAME</t>
+  </si>
+  <si>
+    <t>FOLIO_STATUS</t>
+  </si>
+  <si>
+    <t>SCREENING_DATE</t>
+  </si>
+  <si>
+    <t>RESPONSE_TYPE</t>
+  </si>
+  <si>
+    <t>CHILD_DUE_DATE</t>
+  </si>
+  <si>
+    <t>URGENCY</t>
+  </si>
+  <si>
+    <t>RECENTRECORDS_VERIFY</t>
+  </si>
+  <si>
+    <t>ERWORKERNAME_VERIFY</t>
+  </si>
+  <si>
+    <t>CHILDVICTIM_VERIFY</t>
+  </si>
+  <si>
+    <t>CLOSUREDUEDATE_VERIFY</t>
+  </si>
+  <si>
+    <t>VIEW_ALL_BTN</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>Current Task Assignments</t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Related To</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Service Types</t>
+  </si>
+  <si>
+    <t>Service Type Name</t>
+  </si>
+  <si>
+    <t>Service Type Description</t>
+  </si>
+  <si>
+    <t>Service Category</t>
+  </si>
+  <si>
+    <t>Last Modified Date</t>
+  </si>
+  <si>
+    <t>New Providers created in past 120 days</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>New Locations created in past 120 days</t>
+  </si>
+  <si>
+    <t>Organization Category</t>
+  </si>
+  <si>
+    <t>Location Category</t>
+  </si>
+  <si>
+    <t>SCR_ID1</t>
+  </si>
+  <si>
+    <t>SCR_ID2</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>FOLIO_ID1</t>
+  </si>
+  <si>
+    <t>Folio Ref.</t>
+  </si>
+  <si>
+    <t>Folio Name</t>
+  </si>
+  <si>
+    <t>Folio Status</t>
+  </si>
+  <si>
+    <t>Screening Date</t>
+  </si>
+  <si>
+    <t>Response Type</t>
+  </si>
+  <si>
+    <t>F/F with Child Due Date</t>
+  </si>
+  <si>
+    <t>Urgency</t>
+  </si>
+  <si>
+    <t>Verify</t>
+  </si>
+  <si>
+    <t>Closure Due Date</t>
+  </si>
+  <si>
+    <t>ER Worker Name</t>
+  </si>
+  <si>
+    <t># of Alleged Child Victim(s)</t>
+  </si>
+  <si>
+    <t>testPOM</t>
+  </si>
+  <si>
+    <t>personName1</t>
+  </si>
+  <si>
+    <t>APPROVAL_AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>AUDIT_HISTORY_TAB</t>
+  </si>
+  <si>
+    <t>SCREENING_HISTORY</t>
+  </si>
+  <si>
+    <t>AUDIT_HISTORY</t>
+  </si>
+  <si>
+    <t>DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>FIELD_VERIFY</t>
+  </si>
+  <si>
+    <t>USER_VERIFY</t>
+  </si>
+  <si>
+    <t>ORIGINAL_VALUE_VERIFY</t>
+  </si>
+  <si>
+    <t>NEW_VALUE_VERIFY</t>
+  </si>
+  <si>
+    <t>RECALL_VERIFY</t>
+  </si>
+  <si>
+    <t>STEP_NAME_VERIFY</t>
+  </si>
+  <si>
+    <t>ASSIGNED_TO_VERIFY</t>
+  </si>
+  <si>
+    <t>NEW_VALUE</t>
+  </si>
+  <si>
+    <t>Screening History</t>
+  </si>
+  <si>
+    <t>Contra Costa</t>
+  </si>
+  <si>
+    <t>Fresno</t>
+  </si>
+  <si>
     <t>SCR_BELL_NOTIFICATION</t>
-  </si>
-  <si>
-    <t>SCREENINGS</t>
-  </si>
-  <si>
-    <t>FOLIO</t>
-  </si>
-  <si>
-    <t>PERSONS</t>
-  </si>
-  <si>
-    <t>ORGANIZATIONS</t>
-  </si>
-  <si>
-    <t>SERVICE_CATEGORIES</t>
-  </si>
-  <si>
-    <t>SERVICE_NAMES</t>
-  </si>
-  <si>
-    <t>SERVICE_TYPES</t>
-  </si>
-  <si>
-    <t>PERSON_SEARCH</t>
-  </si>
-  <si>
-    <t>HOUSEHOLDS</t>
-  </si>
-  <si>
-    <t>CONTACT_LOG</t>
-  </si>
-  <si>
-    <t>REPORTS</t>
-  </si>
-  <si>
-    <t>SCREENINGS_WITHIN_MY_COUNTY</t>
-  </si>
-  <si>
-    <t>SEARCH</t>
-  </si>
-  <si>
-    <t>RECORD_ID</t>
-  </si>
-  <si>
-    <t>NEW_CASE</t>
-  </si>
-  <si>
-    <t>SHOWNAVIGATIONMENUE</t>
-  </si>
-  <si>
-    <t>HOME_TAB</t>
-  </si>
-  <si>
-    <t>FOCUSED_SEARCH_TAB</t>
-  </si>
-  <si>
-    <t>PROVIDERSEARCH</t>
-  </si>
-  <si>
-    <t>CURRENTTASKASSIGNMENT_VERIFY</t>
-  </si>
-  <si>
-    <t>DUEDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>SUBJECT_VERIFY</t>
-  </si>
-  <si>
-    <t>RELATEDTO_VERIFY</t>
-  </si>
-  <si>
-    <t>PRIORITY_VERIFY</t>
-  </si>
-  <si>
-    <t>STATUS_VERIFY</t>
-  </si>
-  <si>
-    <t>SOURCE_VERIFY</t>
-  </si>
-  <si>
-    <t>SERVICETYPES_VERIFY</t>
-  </si>
-  <si>
-    <t>SERVICETYPENAME_VERIFY</t>
-  </si>
-  <si>
-    <t>SERVICETYPEDESCRIPTION_VERIFY</t>
-  </si>
-  <si>
-    <t>SERVICECATEGORY_VERIFY</t>
-  </si>
-  <si>
-    <t>LASTMODIEFIEDDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>MYTASKLIST</t>
-  </si>
-  <si>
-    <t>MYORGANIZATION</t>
-  </si>
-  <si>
-    <t>NEWPROVIDER120DAYS_VERIFY</t>
-  </si>
-  <si>
-    <t>NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>MYLOCATION</t>
-  </si>
-  <si>
-    <t>NEWLOCATION120DAYS_VERIFY</t>
-  </si>
-  <si>
-    <t>ORGCATEGORY_VERIFY</t>
-  </si>
-  <si>
-    <t>LOCATIONCATEGORY_VERIFY</t>
-  </si>
-  <si>
-    <t>CURRENTINVESTIGATIONASSIGNMENT_VERIFY</t>
-  </si>
-  <si>
-    <t>MYTEAMINVESTIGATIONASSIGNMENT_VERIFY</t>
-  </si>
-  <si>
-    <t>FOLIOREF_VERIFY</t>
-  </si>
-  <si>
-    <t>FOLIO_NAME</t>
-  </si>
-  <si>
-    <t>FOLIO_STATUS</t>
-  </si>
-  <si>
-    <t>SCREENING_DATE</t>
-  </si>
-  <si>
-    <t>RESPONSE_TYPE</t>
-  </si>
-  <si>
-    <t>CHILD_DUE_DATE</t>
-  </si>
-  <si>
-    <t>URGENCY</t>
-  </si>
-  <si>
-    <t>RECENTRECORDS_VERIFY</t>
-  </si>
-  <si>
-    <t>ERWORKERNAME_VERIFY</t>
-  </si>
-  <si>
-    <t>CHILDVICTIM_VERIFY</t>
-  </si>
-  <si>
-    <t>CLOSUREDUEDATE_VERIFY</t>
-  </si>
-  <si>
-    <t>VIEW_ALL_BTN</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>Current Task Assignments</t>
-  </si>
-  <si>
-    <t>Due Date</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>Related To</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Service Types</t>
-  </si>
-  <si>
-    <t>Service Type Name</t>
-  </si>
-  <si>
-    <t>Service Type Description</t>
-  </si>
-  <si>
-    <t>Service Category</t>
-  </si>
-  <si>
-    <t>Last Modified Date</t>
-  </si>
-  <si>
-    <t>New Providers created in past 120 days</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>New Locations created in past 120 days</t>
-  </si>
-  <si>
-    <t>Organization Category</t>
-  </si>
-  <si>
-    <t>Location Category</t>
-  </si>
-  <si>
-    <t>SCR_ID1</t>
-  </si>
-  <si>
-    <t>SCR_ID2</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>FOLIO_ID1</t>
-  </si>
-  <si>
-    <t>Folio Ref.</t>
-  </si>
-  <si>
-    <t>Folio Name</t>
-  </si>
-  <si>
-    <t>Folio Status</t>
-  </si>
-  <si>
-    <t>Screening Date</t>
-  </si>
-  <si>
-    <t>Response Type</t>
-  </si>
-  <si>
-    <t>F/F with Child Due Date</t>
-  </si>
-  <si>
-    <t>Urgency</t>
-  </si>
-  <si>
-    <t>Verify</t>
-  </si>
-  <si>
-    <t>ER Worker Name</t>
-  </si>
-  <si>
-    <t># of Alleged Child Victim(s)</t>
-  </si>
-  <si>
-    <t>Closure Due Date</t>
-  </si>
-  <si>
-    <t>testPOM</t>
-  </si>
-  <si>
-    <t>personName1</t>
-  </si>
-  <si>
-    <t>APPROVAL_AUDIT_HISTORY_TAB</t>
-  </si>
-  <si>
-    <t>AUDIT_HISTORY_TAB</t>
-  </si>
-  <si>
-    <t>SCREENING_HISTORY</t>
-  </si>
-  <si>
-    <t>AUDIT_HISTORY</t>
-  </si>
-  <si>
-    <t>DATE_VERIFY</t>
-  </si>
-  <si>
-    <t>FIELD_VERIFY</t>
-  </si>
-  <si>
-    <t>USER_VERIFY</t>
-  </si>
-  <si>
-    <t>ORIGINAL_VALUE_VERIFY</t>
-  </si>
-  <si>
-    <t>NEW_VALUE_VERIFY</t>
-  </si>
-  <si>
-    <t>RECALL_VERIFY</t>
-  </si>
-  <si>
-    <t>STEP_NAME_VERIFY</t>
-  </si>
-  <si>
-    <t>ASSIGNED_TO_VERIFY</t>
-  </si>
-  <si>
-    <t>NEW_VALUE</t>
-  </si>
-  <si>
-    <t>Screening History</t>
-  </si>
-  <si>
-    <t>Contra Costa</t>
-  </si>
-  <si>
-    <t>Fresno</t>
-  </si>
-  <si>
-    <t>testFolioDataSetup3</t>
-  </si>
-  <si>
-    <t>testFolioDataSetup4</t>
-  </si>
-  <si>
-    <t>testT4748</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>MYINVESTIGATIONASSIGNMENT_VERIFY</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1045,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -1080,7 +1086,7 @@
       <c r="F1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="42" t="s">
@@ -1521,7 +1527,7 @@
       <c r="H18" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="38" t="s">
+      <c r="I18" s="42" t="s">
         <v>35</v>
       </c>
       <c r="J18" s="38"/>
@@ -1704,10 +1710,13 @@
       <c r="L25" s="43" t="s">
         <v>39</v>
       </c>
+      <c r="M25" s="43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:14" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="B26" s="35">
         <v>1</v>
@@ -1724,7 +1733,7 @@
     </row>
     <row r="27" spans="1:14" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="B27" s="30">
         <v>1</v>
@@ -1744,7 +1753,7 @@
     </row>
     <row r="28" spans="1:14" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="B28" s="35">
         <v>1</v>
@@ -1760,9 +1769,21 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G31" t="s">
-        <v>163</v>
-      </c>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="N31" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1780,8 +1801,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.90625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
@@ -1798,33 +1818,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1838,13 +1858,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1858,13 +1878,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1878,13 +1898,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1898,13 +1918,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1918,13 +1938,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1938,13 +1958,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -1958,13 +1978,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -1978,13 +1998,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1998,13 +2018,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2018,13 +2038,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2038,13 +2058,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -2058,13 +2078,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2078,13 +2098,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -2098,13 +2118,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -2118,18 +2138,18 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
@@ -2138,18 +2158,18 @@
         <v>1</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="B19" s="28">
         <v>1</v>
@@ -2158,18 +2178,18 @@
         <v>1</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -2178,13 +2198,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2194,11 +2214,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
-  <dimension ref="A1:BI27"/>
+  <dimension ref="A1:BJ27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2206,64 +2226,65 @@
     <col min="1" max="2" width="17.90625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.08984375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="14.90625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.90625" style="42" customWidth="1"/>
-    <col min="22" max="22" width="20.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="20.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="27.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="39.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="40" style="33" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="40" style="42" customWidth="1"/>
-    <col min="49" max="49" width="24.08984375" style="33" customWidth="1"/>
-    <col min="50" max="50" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="15.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="14.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="22.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.90625" style="2"/>
-    <col min="57" max="57" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="22.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="23.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="16384" width="8.90625" style="2"/>
+    <col min="6" max="6" width="23.90625" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.08984375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.90625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="14.90625" style="42" customWidth="1"/>
+    <col min="23" max="23" width="20.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="27.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="11.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="39.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="22.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="40" style="33" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="40" style="42" customWidth="1"/>
+    <col min="50" max="50" width="24.08984375" style="33" customWidth="1"/>
+    <col min="51" max="51" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="15.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="22.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="8.90625" style="2"/>
+    <col min="58" max="58" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="23.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -2274,181 +2295,184 @@
         <v>2</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L1" s="42" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M1" s="42" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="N1" s="42" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O1" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q1" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="R1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="V1" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>59</v>
-      </c>
-      <c r="X1" s="34" t="s">
-        <v>72</v>
-      </c>
       <c r="Y1" s="34" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Z1" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AE1" s="10" t="s">
+      <c r="AA1" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AB1" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AC1" s="12" t="s">
         <v>81</v>
       </c>
+      <c r="AD1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="AH1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AI1" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AK1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AL1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AM1" s="42" t="s">
+      <c r="AI1" s="10" t="s">
         <v>87</v>
       </c>
+      <c r="AJ1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="AN1" s="42" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="AO1" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP1" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ1" s="42" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="AP1" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ1" s="34" t="s">
+        <v>95</v>
       </c>
       <c r="AR1" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="AS1" s="34" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="AS1" s="42" t="s">
+        <v>97</v>
       </c>
       <c r="AT1" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU1" s="42" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="AU1" s="34" t="s">
+        <v>99</v>
       </c>
       <c r="AV1" s="42" t="s">
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="AW1" s="42" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AX1" s="42" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AY1" s="42" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AZ1" s="42" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="BA1" s="42" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="BB1" s="42" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="BC1" s="42" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="BD1" s="42" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="BE1" s="42" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="BF1" s="42" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="BG1" s="42" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="BH1" s="42" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="BI1" s="42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="BJ1" s="42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>18</v>
       </c>
@@ -2461,7 +2485,7 @@
       <c r="D2" s="41"/>
       <c r="E2" s="41"/>
       <c r="F2" s="41"/>
-      <c r="G2" s="42"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="42"/>
       <c r="I2" s="42"/>
       <c r="J2" s="42"/>
@@ -2475,83 +2499,83 @@
       <c r="R2" s="42"/>
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
-      <c r="V2" s="42" t="s">
-        <v>109</v>
-      </c>
+      <c r="U2" s="42"/>
       <c r="W2" s="42" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="X2" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="Y2" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AC2" s="10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AD2" s="10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AE2" s="10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AF2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM2" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AG2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ2" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL2" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM2" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN2" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="AO2" s="10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="AP2" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="AR2" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="AS2" s="34" t="s">
-        <v>125</v>
+        <v>115</v>
+      </c>
+      <c r="AS2" s="10" t="s">
+        <v>130</v>
       </c>
       <c r="AT2" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU2" s="34"/>
+        <v>131</v>
+      </c>
+      <c r="AU2" s="34" t="s">
+        <v>132</v>
+      </c>
       <c r="AV2" s="34"/>
       <c r="AW2" s="34"/>
-      <c r="AX2" s="42"/>
+      <c r="AX2" s="34"/>
       <c r="AY2" s="42"/>
       <c r="AZ2" s="42"/>
       <c r="BA2" s="42"/>
@@ -2563,8 +2587,9 @@
       <c r="BG2" s="42"/>
       <c r="BH2" s="42"/>
       <c r="BI2" s="42"/>
-    </row>
-    <row r="3" spans="1:61" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ2" s="42"/>
+    </row>
+    <row r="3" spans="1:62" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>19</v>
       </c>
@@ -2575,18 +2600,20 @@
         <v>1</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="35"/>
+        <v>56</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>
@@ -2612,8 +2639,8 @@
       <c r="AE3" s="35"/>
       <c r="AF3" s="35"/>
       <c r="AG3" s="35"/>
-      <c r="AH3" s="14"/>
-      <c r="AI3" s="35"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="14"/>
       <c r="AJ3" s="35"/>
       <c r="AK3" s="35"/>
       <c r="AL3" s="35"/>
@@ -2640,8 +2667,9 @@
       <c r="BG3" s="35"/>
       <c r="BH3" s="35"/>
       <c r="BI3" s="35"/>
-    </row>
-    <row r="4" spans="1:61" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ3" s="35"/>
+    </row>
+    <row r="4" spans="1:62" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>19</v>
       </c>
@@ -2652,18 +2680,20 @@
         <v>2</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="35"/>
+        <v>56</v>
+      </c>
+      <c r="H4" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
@@ -2682,15 +2712,15 @@
       <c r="X4" s="35"/>
       <c r="Y4" s="35"/>
       <c r="Z4" s="35"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="14"/>
       <c r="AC4" s="35"/>
       <c r="AD4" s="35"/>
       <c r="AE4" s="35"/>
       <c r="AF4" s="35"/>
       <c r="AG4" s="35"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="15"/>
       <c r="AJ4" s="35"/>
       <c r="AK4" s="35"/>
       <c r="AL4" s="35"/>
@@ -2717,8 +2747,9 @@
       <c r="BG4" s="35"/>
       <c r="BH4" s="35"/>
       <c r="BI4" s="35"/>
-    </row>
-    <row r="5" spans="1:61" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ4" s="35"/>
+    </row>
+    <row r="5" spans="1:62" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>23</v>
       </c>
@@ -2729,18 +2760,20 @@
         <v>1</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="37"/>
+        <v>56</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>56</v>
+      </c>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
@@ -2751,27 +2784,27 @@
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
       <c r="R5" s="37"/>
-      <c r="S5" s="37" t="s">
-        <v>51</v>
-      </c>
+      <c r="S5" s="37"/>
       <c r="T5" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="U5" s="37"/>
+        <v>56</v>
+      </c>
+      <c r="U5" s="37" t="s">
+        <v>133</v>
+      </c>
       <c r="V5" s="37"/>
       <c r="W5" s="37"/>
       <c r="X5" s="37"/>
       <c r="Y5" s="37"/>
       <c r="Z5" s="37"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="17"/>
       <c r="AC5" s="37"/>
       <c r="AD5" s="37"/>
       <c r="AE5" s="37"/>
       <c r="AF5" s="37"/>
       <c r="AG5" s="37"/>
-      <c r="AH5" s="18"/>
-      <c r="AI5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="18"/>
       <c r="AJ5" s="37"/>
       <c r="AK5" s="37"/>
       <c r="AL5" s="37"/>
@@ -2779,13 +2812,13 @@
       <c r="AN5" s="37"/>
       <c r="AO5" s="37"/>
       <c r="AP5" s="37"/>
-      <c r="AQ5" s="37" t="s">
-        <v>52</v>
-      </c>
+      <c r="AQ5" s="37"/>
       <c r="AR5" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS5" s="37"/>
+        <v>57</v>
+      </c>
+      <c r="AS5" s="37" t="s">
+        <v>133</v>
+      </c>
       <c r="AT5" s="37"/>
       <c r="AU5" s="37"/>
       <c r="AV5" s="37"/>
@@ -2802,8 +2835,9 @@
       <c r="BG5" s="37"/>
       <c r="BH5" s="37"/>
       <c r="BI5" s="37"/>
-    </row>
-    <row r="6" spans="1:61" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ5" s="37"/>
+    </row>
+    <row r="6" spans="1:62" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
         <v>23</v>
       </c>
@@ -2814,18 +2848,20 @@
         <v>2</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="37"/>
+        <v>54</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
       <c r="K6" s="37"/>
@@ -2844,15 +2880,15 @@
       <c r="X6" s="37"/>
       <c r="Y6" s="37"/>
       <c r="Z6" s="37"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="37"/>
+      <c r="AA6" s="37"/>
+      <c r="AB6" s="17"/>
       <c r="AC6" s="37"/>
       <c r="AD6" s="37"/>
       <c r="AE6" s="37"/>
       <c r="AF6" s="37"/>
       <c r="AG6" s="37"/>
-      <c r="AH6" s="18"/>
-      <c r="AI6" s="37"/>
+      <c r="AH6" s="37"/>
+      <c r="AI6" s="18"/>
       <c r="AJ6" s="37"/>
       <c r="AK6" s="37"/>
       <c r="AL6" s="37"/>
@@ -2860,13 +2896,13 @@
       <c r="AN6" s="37"/>
       <c r="AO6" s="37"/>
       <c r="AP6" s="37"/>
-      <c r="AQ6" s="37" t="s">
-        <v>52</v>
-      </c>
+      <c r="AQ6" s="37"/>
       <c r="AR6" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS6" s="37"/>
+        <v>57</v>
+      </c>
+      <c r="AS6" s="37" t="s">
+        <v>134</v>
+      </c>
       <c r="AT6" s="37"/>
       <c r="AU6" s="37"/>
       <c r="AV6" s="37"/>
@@ -2883,8 +2919,9 @@
       <c r="BG6" s="37"/>
       <c r="BH6" s="37"/>
       <c r="BI6" s="37"/>
-    </row>
-    <row r="7" spans="1:61" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ6" s="37"/>
+    </row>
+    <row r="7" spans="1:62" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
         <v>23</v>
       </c>
@@ -2895,18 +2932,20 @@
         <v>3</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="H7" s="37"/>
+        <v>135</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>135</v>
+      </c>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
@@ -2917,27 +2956,27 @@
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="37"/>
-      <c r="S7" s="37" t="s">
-        <v>51</v>
-      </c>
+      <c r="S7" s="37"/>
       <c r="T7" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="U7" s="37"/>
+        <v>56</v>
+      </c>
+      <c r="U7" s="37" t="s">
+        <v>133</v>
+      </c>
       <c r="V7" s="37"/>
       <c r="W7" s="37"/>
       <c r="X7" s="37"/>
       <c r="Y7" s="37"/>
       <c r="Z7" s="37"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="37"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="17"/>
       <c r="AC7" s="37"/>
       <c r="AD7" s="37"/>
       <c r="AE7" s="37"/>
       <c r="AF7" s="37"/>
       <c r="AG7" s="37"/>
-      <c r="AH7" s="18"/>
-      <c r="AI7" s="37"/>
+      <c r="AH7" s="37"/>
+      <c r="AI7" s="18"/>
       <c r="AJ7" s="37"/>
       <c r="AK7" s="37"/>
       <c r="AL7" s="37"/>
@@ -2945,13 +2984,13 @@
       <c r="AN7" s="37"/>
       <c r="AO7" s="37"/>
       <c r="AP7" s="37"/>
-      <c r="AQ7" s="37" t="s">
-        <v>52</v>
-      </c>
+      <c r="AQ7" s="37"/>
       <c r="AR7" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS7" s="37"/>
+        <v>57</v>
+      </c>
+      <c r="AS7" s="37" t="s">
+        <v>134</v>
+      </c>
       <c r="AT7" s="37"/>
       <c r="AU7" s="37"/>
       <c r="AV7" s="37"/>
@@ -2968,8 +3007,9 @@
       <c r="BG7" s="37"/>
       <c r="BH7" s="37"/>
       <c r="BI7" s="37"/>
-    </row>
-    <row r="8" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ7" s="37"/>
+    </row>
+    <row r="8" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
         <v>27</v>
       </c>
@@ -2980,18 +3020,20 @@
         <v>1</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="42"/>
+        <v>56</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
       <c r="K8" s="42"/>
@@ -3004,20 +3046,20 @@
       <c r="R8" s="42"/>
       <c r="S8" s="42"/>
       <c r="T8" s="42"/>
-      <c r="V8" s="42"/>
+      <c r="U8" s="42"/>
       <c r="W8" s="42"/>
       <c r="X8" s="42"/>
       <c r="Y8" s="42"/>
       <c r="Z8" s="42"/>
-      <c r="AA8" s="10"/>
-      <c r="AB8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="10"/>
       <c r="AC8" s="42"/>
       <c r="AD8" s="42"/>
       <c r="AE8" s="42"/>
       <c r="AF8" s="42"/>
       <c r="AG8" s="42"/>
-      <c r="AH8" s="11"/>
-      <c r="AI8" s="42"/>
+      <c r="AH8" s="42"/>
+      <c r="AI8" s="11"/>
       <c r="AJ8" s="42"/>
       <c r="AK8" s="42"/>
       <c r="AL8" s="42"/>
@@ -3030,7 +3072,7 @@
       <c r="AS8" s="42"/>
       <c r="AT8" s="42"/>
       <c r="AU8" s="42"/>
-      <c r="AW8" s="42"/>
+      <c r="AV8" s="42"/>
       <c r="AX8" s="42"/>
       <c r="AY8" s="42"/>
       <c r="AZ8" s="42"/>
@@ -3043,8 +3085,9 @@
       <c r="BG8" s="42"/>
       <c r="BH8" s="42"/>
       <c r="BI8" s="42"/>
-    </row>
-    <row r="9" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ8" s="42"/>
+    </row>
+    <row r="9" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>27</v>
       </c>
@@ -3055,18 +3098,20 @@
         <v>1</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="H9" s="42"/>
+        <v>56</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
       <c r="K9" s="42"/>
@@ -3079,20 +3124,20 @@
       <c r="R9" s="42"/>
       <c r="S9" s="42"/>
       <c r="T9" s="42"/>
-      <c r="V9" s="42"/>
+      <c r="U9" s="42"/>
       <c r="W9" s="42"/>
       <c r="X9" s="42"/>
       <c r="Y9" s="42"/>
       <c r="Z9" s="42"/>
-      <c r="AA9" s="10"/>
-      <c r="AB9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="10"/>
       <c r="AC9" s="42"/>
       <c r="AD9" s="42"/>
       <c r="AE9" s="42"/>
       <c r="AF9" s="42"/>
       <c r="AG9" s="42"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="42"/>
+      <c r="AH9" s="42"/>
+      <c r="AI9" s="11"/>
       <c r="AJ9" s="42"/>
       <c r="AK9" s="42"/>
       <c r="AL9" s="42"/>
@@ -3105,7 +3150,7 @@
       <c r="AS9" s="42"/>
       <c r="AT9" s="42"/>
       <c r="AU9" s="42"/>
-      <c r="AW9" s="42"/>
+      <c r="AV9" s="42"/>
       <c r="AX9" s="42"/>
       <c r="AY9" s="42"/>
       <c r="AZ9" s="42"/>
@@ -3118,8 +3163,9 @@
       <c r="BG9" s="42"/>
       <c r="BH9" s="42"/>
       <c r="BI9" s="42"/>
-    </row>
-    <row r="10" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ9" s="42"/>
+    </row>
+    <row r="10" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
         <v>18</v>
       </c>
@@ -3132,7 +3178,7 @@
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
-      <c r="G10" s="42"/>
+      <c r="G10" s="41"/>
       <c r="H10" s="42"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
@@ -3146,73 +3192,73 @@
       <c r="R10" s="42"/>
       <c r="S10" s="42"/>
       <c r="T10" s="42"/>
-      <c r="V10" s="42" t="s">
-        <v>109</v>
-      </c>
+      <c r="U10" s="42"/>
       <c r="W10" s="42" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="X10" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA10" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
+      </c>
+      <c r="Y10" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42" t="s">
+        <v>115</v>
       </c>
       <c r="AB10" s="10" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AC10" s="10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AD10" s="10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AE10" s="10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AF10" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG10" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH10" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI10" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ10" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM10" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN10" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="AG10" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH10" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI10" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ10" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AK10" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL10" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM10" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AN10" s="10" t="s">
-        <v>109</v>
-      </c>
       <c r="AO10" s="10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="AP10" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ10" s="42"/>
+        <v>128</v>
+      </c>
+      <c r="AQ10" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="AR10" s="42"/>
       <c r="AS10" s="42"/>
       <c r="AT10" s="42"/>
       <c r="AU10" s="42"/>
-      <c r="AW10" s="42"/>
+      <c r="AV10" s="42"/>
       <c r="AX10" s="42"/>
       <c r="AY10" s="42"/>
       <c r="AZ10" s="42"/>
@@ -3225,8 +3271,9 @@
       <c r="BG10" s="42"/>
       <c r="BH10" s="42"/>
       <c r="BI10" s="42"/>
-    </row>
-    <row r="11" spans="1:61" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ10" s="42"/>
+    </row>
+    <row r="11" spans="1:62" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>32</v>
       </c>
@@ -3237,19 +3284,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
@@ -3261,20 +3308,20 @@
       <c r="P11" s="38"/>
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
-      <c r="S11" s="38" t="s">
-        <v>51</v>
-      </c>
+      <c r="S11" s="38"/>
       <c r="T11" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="U11" s="38"/>
+        <v>56</v>
+      </c>
+      <c r="U11" s="38" t="s">
+        <v>133</v>
+      </c>
       <c r="V11" s="38"/>
       <c r="W11" s="38"/>
       <c r="X11" s="38"/>
-      <c r="Y11" s="42"/>
+      <c r="Y11" s="38"/>
       <c r="Z11" s="42"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="38"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="19"/>
       <c r="AC11" s="38"/>
       <c r="AD11" s="38"/>
       <c r="AE11" s="38"/>
@@ -3308,8 +3355,9 @@
       <c r="BG11" s="38"/>
       <c r="BH11" s="38"/>
       <c r="BI11" s="38"/>
-    </row>
-    <row r="12" spans="1:61" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ11" s="38"/>
+    </row>
+    <row r="12" spans="1:62" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
         <v>32</v>
       </c>
@@ -3320,18 +3368,20 @@
         <v>2</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="H12" s="38"/>
+        <v>135</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>135</v>
+      </c>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -3342,20 +3392,20 @@
       <c r="P12" s="38"/>
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
-      <c r="S12" s="38" t="s">
-        <v>51</v>
-      </c>
+      <c r="S12" s="38"/>
       <c r="T12" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="U12" s="38"/>
+        <v>56</v>
+      </c>
+      <c r="U12" s="38" t="s">
+        <v>136</v>
+      </c>
       <c r="V12" s="38"/>
       <c r="W12" s="38"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="38"/>
+      <c r="AA12" s="38"/>
+      <c r="AB12" s="19"/>
       <c r="AC12" s="38"/>
       <c r="AD12" s="38"/>
       <c r="AE12" s="38"/>
@@ -3389,8 +3439,9 @@
       <c r="BG12" s="38"/>
       <c r="BH12" s="38"/>
       <c r="BI12" s="38"/>
-    </row>
-    <row r="13" spans="1:61" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ12" s="38"/>
+    </row>
+    <row r="13" spans="1:62" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>28</v>
       </c>
@@ -3401,71 +3452,73 @@
         <v>1</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>129</v>
+        <v>56</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>56</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="N13" s="36" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="O13" s="36" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="R13" s="36" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="T13" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="U13" s="36"/>
+        <v>56</v>
+      </c>
+      <c r="U13" s="36" t="s">
+        <v>133</v>
+      </c>
       <c r="V13" s="36"/>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
       <c r="Y13" s="36"/>
       <c r="Z13" s="36"/>
-      <c r="AA13" s="26"/>
-      <c r="AB13" s="36"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="26"/>
       <c r="AC13" s="36"/>
       <c r="AD13" s="36"/>
       <c r="AE13" s="36"/>
       <c r="AF13" s="36"/>
       <c r="AG13" s="36"/>
-      <c r="AH13" s="27"/>
-      <c r="AI13" s="36"/>
+      <c r="AH13" s="36"/>
+      <c r="AI13" s="27"/>
       <c r="AJ13" s="36"/>
       <c r="AK13" s="36"/>
       <c r="AL13" s="36"/>
@@ -3492,8 +3545,9 @@
       <c r="BG13" s="36"/>
       <c r="BH13" s="36"/>
       <c r="BI13" s="36"/>
-    </row>
-    <row r="14" spans="1:61" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ13" s="36"/>
+    </row>
+    <row r="14" spans="1:62" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
         <v>25</v>
       </c>
@@ -3504,18 +3558,20 @@
         <v>1</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H14" s="35"/>
+        <v>56</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
@@ -3526,13 +3582,13 @@
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
-      <c r="S14" s="35" t="s">
-        <v>51</v>
-      </c>
+      <c r="S14" s="35"/>
       <c r="T14" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="U14" s="35"/>
+        <v>56</v>
+      </c>
+      <c r="U14" s="35" t="s">
+        <v>133</v>
+      </c>
       <c r="V14" s="35"/>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
@@ -3543,8 +3599,8 @@
       <c r="AC14" s="35"/>
       <c r="AD14" s="35"/>
       <c r="AE14" s="35"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="14"/>
       <c r="AH14" s="35"/>
       <c r="AI14" s="35"/>
       <c r="AJ14" s="35"/>
@@ -3573,8 +3629,9 @@
       <c r="BG14" s="35"/>
       <c r="BH14" s="35"/>
       <c r="BI14" s="35"/>
-    </row>
-    <row r="15" spans="1:61" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ14" s="35"/>
+    </row>
+    <row r="15" spans="1:62" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
         <v>26</v>
       </c>
@@ -3585,18 +3642,20 @@
         <v>1</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="35"/>
+        <v>56</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
@@ -3607,13 +3666,13 @@
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
-      <c r="S15" s="35" t="s">
-        <v>51</v>
-      </c>
+      <c r="S15" s="35"/>
       <c r="T15" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="U15" s="35"/>
+        <v>56</v>
+      </c>
+      <c r="U15" s="35" t="s">
+        <v>133</v>
+      </c>
       <c r="V15" s="35"/>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
@@ -3624,8 +3683,8 @@
       <c r="AC15" s="35"/>
       <c r="AD15" s="35"/>
       <c r="AE15" s="35"/>
-      <c r="AF15" s="14"/>
-      <c r="AG15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="14"/>
       <c r="AH15" s="35"/>
       <c r="AI15" s="35"/>
       <c r="AJ15" s="35"/>
@@ -3654,8 +3713,9 @@
       <c r="BG15" s="35"/>
       <c r="BH15" s="35"/>
       <c r="BI15" s="35"/>
-    </row>
-    <row r="16" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ15" s="35"/>
+    </row>
+    <row r="16" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42" t="s">
         <v>33</v>
       </c>
@@ -3666,20 +3726,22 @@
         <v>1</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="42"/>
+        <v>56</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="42"/>
+      <c r="J16" s="41"/>
       <c r="K16" s="42"/>
       <c r="L16" s="42"/>
       <c r="M16" s="42"/>
@@ -3690,9 +3752,9 @@
       <c r="R16" s="42"/>
       <c r="S16" s="42"/>
       <c r="T16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="20"/>
       <c r="Y16" s="42"/>
       <c r="Z16" s="42"/>
       <c r="AA16" s="42"/>
@@ -3716,7 +3778,7 @@
       <c r="AS16" s="42"/>
       <c r="AT16" s="42"/>
       <c r="AU16" s="42"/>
-      <c r="AW16" s="42"/>
+      <c r="AV16" s="42"/>
       <c r="AX16" s="42"/>
       <c r="AY16" s="42"/>
       <c r="AZ16" s="42"/>
@@ -3729,8 +3791,9 @@
       <c r="BG16" s="42"/>
       <c r="BH16" s="42"/>
       <c r="BI16" s="42"/>
-    </row>
-    <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ16" s="42"/>
+    </row>
+    <row r="17" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="41" t="s">
         <v>34</v>
       </c>
@@ -3741,18 +3804,20 @@
         <v>1</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="42"/>
+        <v>56</v>
+      </c>
+      <c r="H17" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
@@ -3763,18 +3828,18 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42"/>
-      <c r="S17" s="42" t="s">
-        <v>51</v>
-      </c>
+      <c r="S17" s="42"/>
       <c r="T17" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="V17" s="42"/>
+        <v>56</v>
+      </c>
+      <c r="U17" s="42" t="s">
+        <v>136</v>
+      </c>
       <c r="W17" s="42"/>
-      <c r="X17" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="Z17" s="42"/>
       <c r="AA17" s="42"/>
       <c r="AB17" s="42"/>
@@ -3796,40 +3861,41 @@
       <c r="AR17" s="42"/>
       <c r="AS17" s="42"/>
       <c r="AT17" s="42"/>
-      <c r="AU17" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW17" s="42"/>
-      <c r="AX17" s="42" t="s">
-        <v>131</v>
-      </c>
+      <c r="AU17" s="42"/>
+      <c r="AV17" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX17" s="42"/>
       <c r="AY17" s="42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AZ17" s="42" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="BA17" s="42" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="BB17" s="42" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="BC17" s="42" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="BD17" s="42" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="BE17" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="BF17" s="42"/>
+        <v>143</v>
+      </c>
+      <c r="BF17" s="42" t="s">
+        <v>144</v>
+      </c>
       <c r="BG17" s="42"/>
       <c r="BH17" s="42"/>
       <c r="BI17" s="42"/>
-    </row>
-    <row r="18" spans="1:61" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ17" s="42"/>
+    </row>
+    <row r="18" spans="1:62" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="41" t="s">
         <v>34</v>
       </c>
@@ -3840,14 +3906,14 @@
         <v>2</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
+      <c r="H18" s="41"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
@@ -3863,10 +3929,10 @@
       <c r="U18" s="42"/>
       <c r="V18" s="42"/>
       <c r="W18" s="42"/>
-      <c r="X18" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="Z18" s="42"/>
       <c r="AA18" s="42"/>
       <c r="AB18" s="42"/>
@@ -3889,40 +3955,41 @@
       <c r="AS18" s="42"/>
       <c r="AT18" s="42"/>
       <c r="AU18" s="42"/>
-      <c r="AV18" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="AW18" s="42"/>
-      <c r="AX18" s="42" t="s">
-        <v>131</v>
-      </c>
+      <c r="AV18" s="42"/>
+      <c r="AW18" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX18" s="42"/>
       <c r="AY18" s="42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AZ18" s="42" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="BA18" s="42" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="BB18" s="42" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="BC18" s="42" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="BD18" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="BE18" s="42"/>
+        <v>142</v>
+      </c>
+      <c r="BE18" s="42" t="s">
+        <v>143</v>
+      </c>
       <c r="BF18" s="42"/>
       <c r="BG18" s="42"/>
-      <c r="BH18" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="BI18" s="42"/>
-    </row>
-    <row r="19" spans="1:61" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BH18" s="42"/>
+      <c r="BI18" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="BJ18" s="42"/>
+    </row>
+    <row r="19" spans="1:62" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="41" t="s">
         <v>34</v>
       </c>
@@ -3936,7 +4003,7 @@
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
+      <c r="H19" s="41"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
@@ -3952,10 +4019,10 @@
       <c r="U19" s="42"/>
       <c r="V19" s="42"/>
       <c r="W19" s="42"/>
-      <c r="X19" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="Z19" s="42"/>
       <c r="AA19" s="42"/>
       <c r="AB19" s="42"/>
@@ -3979,49 +4046,50 @@
       <c r="AT19" s="42"/>
       <c r="AU19" s="42"/>
       <c r="AV19" s="42"/>
-      <c r="AW19" s="42" t="s">
-        <v>52</v>
-      </c>
+      <c r="AW19" s="42"/>
       <c r="AX19" s="42" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="AY19" s="42" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="AZ19" s="42" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="BA19" s="42" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="BB19" s="42" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="BC19" s="42" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="BD19" s="42" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="BE19" s="42" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="BF19" s="42" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="BG19" s="42" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="BH19" s="42" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="BI19" s="42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+      <c r="BJ19" s="42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="42" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B20" s="41">
         <v>1</v>
@@ -4030,15 +4098,14 @@
         <v>1</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
       <c r="G20" s="42"/>
-      <c r="H20" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
       <c r="L20" s="42"/>
@@ -4050,7 +4117,7 @@
       <c r="R20" s="42"/>
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
-      <c r="V20" s="42"/>
+      <c r="U20" s="42"/>
       <c r="W20" s="42"/>
       <c r="X20" s="42"/>
       <c r="Y20" s="42"/>
@@ -4076,7 +4143,7 @@
       <c r="AS20" s="42"/>
       <c r="AT20" s="42"/>
       <c r="AU20" s="42"/>
-      <c r="AW20" s="42"/>
+      <c r="AV20" s="42"/>
       <c r="AX20" s="42"/>
       <c r="AY20" s="42"/>
       <c r="AZ20" s="42"/>
@@ -4089,8 +4156,9 @@
       <c r="BG20" s="42"/>
       <c r="BH20" s="42"/>
       <c r="BI20" s="42"/>
-    </row>
-    <row r="21" spans="1:61" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ20" s="42"/>
+    </row>
+    <row r="21" spans="1:62" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="38" t="s">
         <v>37</v>
       </c>
@@ -4101,18 +4169,20 @@
         <v>1</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H21" s="38"/>
+        <v>56</v>
+      </c>
+      <c r="H21" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
       <c r="K21" s="38"/>
@@ -4123,20 +4193,20 @@
       <c r="P21" s="38"/>
       <c r="Q21" s="38"/>
       <c r="R21" s="38"/>
-      <c r="S21" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="T21" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="U21" s="8"/>
-      <c r="V21" s="38"/>
+      <c r="S21" s="38"/>
+      <c r="T21" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="U21" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="V21" s="8"/>
       <c r="W21" s="38"/>
       <c r="X21" s="38"/>
-      <c r="Y21" s="42"/>
+      <c r="Y21" s="38"/>
       <c r="Z21" s="42"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="38"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="19"/>
       <c r="AC21" s="38"/>
       <c r="AD21" s="38"/>
       <c r="AE21" s="38"/>
@@ -4170,8 +4240,9 @@
       <c r="BG21" s="38"/>
       <c r="BH21" s="38"/>
       <c r="BI21" s="38"/>
-    </row>
-    <row r="22" spans="1:61" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ21" s="38"/>
+    </row>
+    <row r="22" spans="1:62" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -4182,18 +4253,20 @@
         <v>1</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="35"/>
+        <v>56</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
@@ -4204,13 +4277,13 @@
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="35"/>
-      <c r="S22" s="35" t="s">
-        <v>51</v>
-      </c>
+      <c r="S22" s="35"/>
       <c r="T22" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="U22" s="35"/>
+        <v>56</v>
+      </c>
+      <c r="U22" s="35" t="s">
+        <v>133</v>
+      </c>
       <c r="V22" s="35"/>
       <c r="W22" s="35"/>
       <c r="X22" s="35"/>
@@ -4221,8 +4294,8 @@
       <c r="AC22" s="35"/>
       <c r="AD22" s="35"/>
       <c r="AE22" s="35"/>
-      <c r="AF22" s="14"/>
-      <c r="AG22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="14"/>
       <c r="AH22" s="35"/>
       <c r="AI22" s="35"/>
       <c r="AJ22" s="35"/>
@@ -4251,8 +4324,9 @@
       <c r="BG22" s="35"/>
       <c r="BH22" s="35"/>
       <c r="BI22" s="35"/>
-    </row>
-    <row r="23" spans="1:61" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ22" s="35"/>
+    </row>
+    <row r="23" spans="1:62" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>41</v>
       </c>
@@ -4263,18 +4337,20 @@
         <v>1</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="38"/>
+        <v>56</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
       <c r="K23" s="38"/>
@@ -4285,13 +4361,13 @@
       <c r="P23" s="38"/>
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
-      <c r="S23" s="38" t="s">
-        <v>51</v>
-      </c>
+      <c r="S23" s="38"/>
       <c r="T23" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="U23" s="38"/>
+        <v>56</v>
+      </c>
+      <c r="U23" s="38" t="s">
+        <v>133</v>
+      </c>
       <c r="V23" s="38"/>
       <c r="W23" s="38"/>
       <c r="X23" s="38"/>
@@ -4302,8 +4378,8 @@
       <c r="AC23" s="38"/>
       <c r="AD23" s="38"/>
       <c r="AE23" s="38"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="38"/>
+      <c r="AF23" s="38"/>
+      <c r="AG23" s="32"/>
       <c r="AH23" s="38"/>
       <c r="AI23" s="38"/>
       <c r="AJ23" s="38"/>
@@ -4332,8 +4408,9 @@
       <c r="BG23" s="38"/>
       <c r="BH23" s="38"/>
       <c r="BI23" s="38"/>
-    </row>
-    <row r="24" spans="1:61" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BJ23" s="38"/>
+    </row>
+    <row r="24" spans="1:62" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="44" t="s">
         <v>45</v>
       </c>
@@ -4344,60 +4421,63 @@
         <v>1</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="I24" s="44" t="s">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="J24" s="44" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="L24" s="44" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="M24" s="44" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="N24" s="44" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="O24" s="44" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="P24" s="44" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="Q24" s="44" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="R24" s="44" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="S24" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="U24" s="44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:61" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+      <c r="T24" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="V24" s="44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:62" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="B25" s="35">
         <v>1</v>
@@ -4406,28 +4486,31 @@
         <v>1</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="S25" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>56</v>
       </c>
       <c r="T25" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF25" s="14"/>
-    </row>
-    <row r="26" spans="1:61" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="U25" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG25" s="14"/>
+    </row>
+    <row r="26" spans="1:62" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="B26" s="38">
         <v>1</v>
@@ -4436,28 +4519,31 @@
         <v>1</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="S26" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
+      </c>
+      <c r="H26" s="38" t="s">
+        <v>56</v>
       </c>
       <c r="T26" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF26" s="32"/>
-    </row>
-    <row r="27" spans="1:61" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="U26" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG26" s="32"/>
+    </row>
+    <row r="27" spans="1:62" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="42" t="s">
-        <v>162</v>
+        <v>49</v>
       </c>
       <c r="B27" s="41">
         <v>1</v>
@@ -4466,19 +4552,22 @@
         <v>1</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="I27" s="41"/>
-      <c r="W27" s="20"/>
+        <v>56</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="41"/>
+      <c r="X27" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4522,46 +4611,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L1" s="42" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M1" s="42" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="N1" s="42" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="O1" s="42" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P1" s="42" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4576,36 +4665,36 @@
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="42"/>
     </row>
@@ -4620,43 +4709,43 @@
         <v>1</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="37"/>
     </row>
@@ -4671,43 +4760,43 @@
         <v>1</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I4" s="41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L4" s="41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M4" s="41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N4" s="41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O4" s="41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P4" s="41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="42"/>
     </row>
@@ -4722,43 +4811,43 @@
         <v>1</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H5" s="41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I5" s="41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J5" s="41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K5" s="41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L5" s="41" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M5" s="41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N5" s="41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O5" s="41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P5" s="41" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="42"/>
     </row>
@@ -4773,46 +4862,46 @@
         <v>1</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K6" s="22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N6" s="22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O6" s="22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4826,46 +4915,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I7" s="22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4879,46 +4968,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H8" s="24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J8" s="24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K8" s="24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N8" s="24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O8" s="24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4932,46 +5021,46 @@
         <v>1</v>
       </c>
       <c r="D9" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4985,46 +5074,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5038,46 +5127,46 @@
         <v>1</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5091,51 +5180,51 @@
         <v>1</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="35" t="s">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="B13" s="35">
         <v>1</v>
@@ -5144,51 +5233,51 @@
         <v>1</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="B14" s="38">
         <v>1</v>
@@ -5197,46 +5286,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M14" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\TestData30jan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441D1560-8DC5-4F1B-8868-E613C83040D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F46057-91AC-4C6A-886F-44B4F7F6AB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="183">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -140,15 +140,15 @@
     <t>testT4239</t>
   </si>
   <si>
+    <t>ERSupervisorContraCosta</t>
+  </si>
+  <si>
     <t>testT4250</t>
   </si>
   <si>
     <t>testT4244</t>
   </si>
   <si>
-    <t>ERSupervisorContraCosta</t>
-  </si>
-  <si>
     <t>ClericalWorkerContraCosta</t>
   </si>
   <si>
@@ -176,21 +176,27 @@
     <t>ERWorkerFresno</t>
   </si>
   <si>
+    <t>testT4764</t>
+  </si>
+  <si>
+    <t>CMManagerContraCosta</t>
+  </si>
+  <si>
+    <t>testFolioDataSetup3</t>
+  </si>
+  <si>
+    <t>testFolioDataSetup4</t>
+  </si>
+  <si>
+    <t>ERSupervisorFresno</t>
+  </si>
+  <si>
+    <t>testT4748</t>
+  </si>
+  <si>
     <t>testT4148</t>
   </si>
   <si>
-    <t>CMManagerContraCosta</t>
-  </si>
-  <si>
-    <t>testFolioDataSetup3</t>
-  </si>
-  <si>
-    <t>testFolioDataSetup4</t>
-  </si>
-  <si>
-    <t>testT4748</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -224,6 +230,9 @@
     <t>BELL_NOTIFICATION</t>
   </si>
   <si>
+    <t>SCR_BELL_NOTIFICATION</t>
+  </si>
+  <si>
     <t>SCREENINGS</t>
   </si>
   <si>
@@ -266,9 +275,33 @@
     <t>RECORD_ID</t>
   </si>
   <si>
+    <t>RECORD_ID2</t>
+  </si>
+  <si>
     <t>NEW_CASE</t>
   </si>
   <si>
+    <t>ASSESSMENTS_VIEW_BTN</t>
+  </si>
+  <si>
+    <t>CONTACTNOTES_VIEW_BTN</t>
+  </si>
+  <si>
+    <t>CURRENT_CASE_LINK</t>
+  </si>
+  <si>
+    <t>CASE_TYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>CURRENT_TASK_LINK</t>
+  </si>
+  <si>
+    <t>TASK_ID_VERIFY</t>
+  </si>
+  <si>
+    <t>RELATED_TO_VERIFY</t>
+  </si>
+  <si>
     <t>SHOWNAVIGATIONMENUE</t>
   </si>
   <si>
@@ -302,6 +335,27 @@
     <t>SOURCE_VERIFY</t>
   </si>
   <si>
+    <t>CURRENTCASEASSIGNMENT_VERIFY</t>
+  </si>
+  <si>
+    <t>FOLIOREF_VERIFY</t>
+  </si>
+  <si>
+    <t>FOLIO_NAME</t>
+  </si>
+  <si>
+    <t>CASE_OPEN_DATE_VERIFY</t>
+  </si>
+  <si>
+    <t>CASE_SUBTYPE_VERIFY</t>
+  </si>
+  <si>
+    <t>ASSIGNMENT_DATE_TO_QUEUE_VERIFY</t>
+  </si>
+  <si>
+    <t>SERVICE_COMPONENT_VERIFY</t>
+  </si>
+  <si>
     <t>SERVICETYPES_VERIFY</t>
   </si>
   <si>
@@ -350,12 +404,6 @@
     <t>MYTEAMINVESTIGATIONASSIGNMENT_VERIFY</t>
   </si>
   <si>
-    <t>FOLIOREF_VERIFY</t>
-  </si>
-  <si>
-    <t>FOLIO_NAME</t>
-  </si>
-  <si>
     <t>FOLIO_STATUS</t>
   </si>
   <si>
@@ -539,7 +587,7 @@
     <t>Fresno</t>
   </si>
   <si>
-    <t>SCR_BELL_NOTIFICATION</t>
+    <t>testT4273</t>
   </si>
 </sst>
 </file>
@@ -614,7 +662,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -669,8 +717,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -678,11 +744,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -728,6 +822,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1044,24 +1143,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.90625" customWidth="1"/>
+    <col min="11" max="11" width="20.81640625" customWidth="1"/>
     <col min="12" max="12" width="24.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.54296875" style="42" customWidth="1"/>
     <col min="14" max="14" width="17.453125" bestFit="1" customWidth="1"/>
@@ -1528,7 +1627,7 @@
         <v>22</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
@@ -1538,7 +1637,7 @@
     </row>
     <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" s="41">
         <v>1</v>
@@ -1565,7 +1664,7 @@
     </row>
     <row r="20" spans="1:14" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="41">
         <v>1</v>
@@ -1585,7 +1684,7 @@
         <v>22</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
@@ -1597,7 +1696,7 @@
     </row>
     <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="41">
         <v>2</v>
@@ -1730,6 +1829,12 @@
       <c r="G26" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="H26" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="46" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="27" spans="1:14" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
@@ -1750,10 +1855,13 @@
       <c r="H27" s="38" t="s">
         <v>44</v>
       </c>
+      <c r="I27" s="47" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="28" spans="1:14" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="35">
         <v>1</v>
@@ -1767,6 +1875,59 @@
       <c r="G28" s="6" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="29" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="45">
+        <v>1</v>
+      </c>
+      <c r="C29" s="45">
+        <v>1</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="M29" s="45" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="B30" s="42">
+        <v>1</v>
+      </c>
+      <c r="C30" s="42">
+        <v>1</v>
+      </c>
+      <c r="D30" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="L30" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N30" s="42"/>
     </row>
     <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="42"/>
@@ -1776,7 +1937,7 @@
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
@@ -1793,16 +1954,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -1818,33 +1979,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -1858,13 +2019,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -1878,13 +2039,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -1898,13 +2059,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1918,13 +2079,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1938,18 +2099,18 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -1958,13 +2119,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -1978,13 +2139,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -1998,18 +2159,18 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -2018,13 +2179,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2038,13 +2199,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2058,13 +2219,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -2078,13 +2239,13 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2098,13 +2259,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -2118,13 +2279,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -2138,13 +2299,13 @@
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -2158,13 +2319,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.35">
@@ -2178,18 +2339,18 @@
         <v>1</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B20" s="3">
         <v>1</v>
@@ -2198,13 +2359,53 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="42">
+        <v>1</v>
+      </c>
+      <c r="C21" s="42">
+        <v>1</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2214,77 +2415,81 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
-  <dimension ref="A1:BJ27"/>
+  <dimension ref="A1:BZ29"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.90625" style="42" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="13.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="33.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.08984375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="14.90625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="14.90625" style="42" customWidth="1"/>
-    <col min="23" max="23" width="20.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="31.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="27.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="11.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="39.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="22.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="24.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="40" style="33" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="40" style="42" customWidth="1"/>
-    <col min="50" max="50" width="24.08984375" style="33" customWidth="1"/>
-    <col min="51" max="51" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="13.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="15.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="22.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="8.90625" style="2"/>
-    <col min="58" max="58" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="22.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="23.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="63" max="16384" width="8.90625" style="2"/>
+    <col min="19" max="19" width="33.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.1796875" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.81640625" style="2" customWidth="1"/>
+    <col min="22" max="23" width="14.81640625" style="42" customWidth="1"/>
+    <col min="24" max="24" width="24.54296875" style="42" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.453125" style="42" bestFit="1" customWidth="1"/>
+    <col min="26" max="30" width="26.453125" style="42" customWidth="1"/>
+    <col min="31" max="31" width="20.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="16.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="50" width="14.54296875" style="42" customWidth="1"/>
+    <col min="51" max="51" width="20.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="31.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="26.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="27.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="39.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="22.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="40" style="33" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="40" style="42" customWidth="1"/>
+    <col min="66" max="66" width="24.1796875" style="33" customWidth="1"/>
+    <col min="67" max="67" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="22.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="8.81640625" style="2"/>
+    <col min="74" max="74" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="22.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="23.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -2295,184 +2500,232 @@
         <v>2</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>166</v>
+        <v>63</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L1" s="42" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M1" s="42" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="N1" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF1" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q1" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="R1" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="W1" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="X1" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y1" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z1" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA1" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE1" s="11" t="s">
+      <c r="AG1" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH1" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI1" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU1" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="AF1" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL1" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN1" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO1" s="42" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP1" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="AQ1" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="AR1" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="AS1" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="AT1" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU1" s="34" t="s">
+      <c r="AV1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AW1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="BB1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BD1" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="BE1" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="BF1" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="BG1" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="BH1" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI1" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="BJ1" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="BK1" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL1" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="BM1" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="BN1" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="BO1" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="AV1" s="42" t="s">
+      <c r="BP1" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="AW1" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="AX1" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY1" s="42" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ1" s="42" t="s">
-        <v>104</v>
-      </c>
-      <c r="BA1" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="BB1" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="BC1" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="BD1" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="BE1" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="BF1" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="BG1" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="BH1" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="BI1" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="BJ1" s="42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BQ1" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR1" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="BS1" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="BT1" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="BU1" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="BV1" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="BW1" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX1" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="BY1" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="BZ1" s="42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42" t="s">
         <v>18</v>
       </c>
@@ -2500,96 +2753,104 @@
       <c r="S2" s="42"/>
       <c r="T2" s="42"/>
       <c r="U2" s="42"/>
-      <c r="W2" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="X2" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y2" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF2" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI2" s="10" t="s">
-        <v>123</v>
+      <c r="AE2" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF2" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG2" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="42" t="s">
+        <v>131</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AL2" s="10" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AM2" s="10" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="AN2" s="10" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="AO2" s="10" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="AP2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR2" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS2" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT2" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10"/>
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10"/>
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10"/>
+      <c r="AW2" s="10"/>
+      <c r="AX2" s="10"/>
+      <c r="AY2" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ2" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA2" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB2" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC2" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="AU2" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="42"/>
-      <c r="AZ2" s="42"/>
-      <c r="BA2" s="42"/>
-      <c r="BB2" s="42"/>
-      <c r="BC2" s="42"/>
-      <c r="BD2" s="42"/>
-      <c r="BE2" s="42"/>
-      <c r="BF2" s="42"/>
-      <c r="BG2" s="42"/>
-      <c r="BH2" s="42"/>
-      <c r="BI2" s="42"/>
-      <c r="BJ2" s="42"/>
-    </row>
-    <row r="3" spans="1:62" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BE2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF2" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BG2" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="BH2" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BI2" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ2" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK2" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="BL2" s="34"/>
+      <c r="BM2" s="34"/>
+      <c r="BN2" s="34"/>
+      <c r="BO2" s="42"/>
+      <c r="BP2" s="42"/>
+      <c r="BQ2" s="42"/>
+      <c r="BR2" s="42"/>
+      <c r="BS2" s="42"/>
+      <c r="BT2" s="42"/>
+      <c r="BU2" s="42"/>
+      <c r="BV2" s="42"/>
+      <c r="BW2" s="42"/>
+      <c r="BX2" s="42"/>
+      <c r="BY2" s="42"/>
+      <c r="BZ2" s="42"/>
+    </row>
+    <row r="3" spans="1:78" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="35" t="s">
         <v>19</v>
       </c>
@@ -2600,19 +2861,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
@@ -2640,7 +2901,7 @@
       <c r="AF3" s="35"/>
       <c r="AG3" s="35"/>
       <c r="AH3" s="35"/>
-      <c r="AI3" s="14"/>
+      <c r="AI3" s="35"/>
       <c r="AJ3" s="35"/>
       <c r="AK3" s="35"/>
       <c r="AL3" s="35"/>
@@ -2656,7 +2917,7 @@
       <c r="AV3" s="35"/>
       <c r="AW3" s="35"/>
       <c r="AX3" s="35"/>
-      <c r="AY3" s="35"/>
+      <c r="AY3" s="14"/>
       <c r="AZ3" s="35"/>
       <c r="BA3" s="35"/>
       <c r="BB3" s="35"/>
@@ -2668,8 +2929,24 @@
       <c r="BH3" s="35"/>
       <c r="BI3" s="35"/>
       <c r="BJ3" s="35"/>
-    </row>
-    <row r="4" spans="1:62" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK3" s="35"/>
+      <c r="BL3" s="35"/>
+      <c r="BM3" s="35"/>
+      <c r="BN3" s="35"/>
+      <c r="BO3" s="35"/>
+      <c r="BP3" s="35"/>
+      <c r="BQ3" s="35"/>
+      <c r="BR3" s="35"/>
+      <c r="BS3" s="35"/>
+      <c r="BT3" s="35"/>
+      <c r="BU3" s="35"/>
+      <c r="BV3" s="35"/>
+      <c r="BW3" s="35"/>
+      <c r="BX3" s="35"/>
+      <c r="BY3" s="35"/>
+      <c r="BZ3" s="35"/>
+    </row>
+    <row r="4" spans="1:78" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
         <v>19</v>
       </c>
@@ -2680,19 +2957,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
@@ -2713,15 +2990,15 @@
       <c r="Y4" s="35"/>
       <c r="Z4" s="35"/>
       <c r="AA4" s="35"/>
-      <c r="AB4" s="14"/>
+      <c r="AB4" s="35"/>
       <c r="AC4" s="35"/>
       <c r="AD4" s="35"/>
       <c r="AE4" s="35"/>
       <c r="AF4" s="35"/>
       <c r="AG4" s="35"/>
       <c r="AH4" s="35"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="14"/>
       <c r="AK4" s="35"/>
       <c r="AL4" s="35"/>
       <c r="AM4" s="35"/>
@@ -2736,7 +3013,7 @@
       <c r="AV4" s="35"/>
       <c r="AW4" s="35"/>
       <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
+      <c r="AY4" s="15"/>
       <c r="AZ4" s="35"/>
       <c r="BA4" s="35"/>
       <c r="BB4" s="35"/>
@@ -2748,8 +3025,24 @@
       <c r="BH4" s="35"/>
       <c r="BI4" s="35"/>
       <c r="BJ4" s="35"/>
-    </row>
-    <row r="5" spans="1:62" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="35"/>
+      <c r="BP4" s="35"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="35"/>
+      <c r="BV4" s="35"/>
+      <c r="BW4" s="35"/>
+      <c r="BX4" s="35"/>
+      <c r="BY4" s="35"/>
+      <c r="BZ4" s="35"/>
+    </row>
+    <row r="5" spans="1:78" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
         <v>23</v>
       </c>
@@ -2760,19 +3053,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
@@ -2786,26 +3079,28 @@
       <c r="R5" s="37"/>
       <c r="S5" s="37"/>
       <c r="T5" s="37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U5" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="V5" s="37"/>
+        <v>149</v>
+      </c>
+      <c r="V5" s="37" t="s">
+        <v>149</v>
+      </c>
       <c r="W5" s="37"/>
       <c r="X5" s="37"/>
       <c r="Y5" s="37"/>
       <c r="Z5" s="37"/>
       <c r="AA5" s="37"/>
-      <c r="AB5" s="17"/>
+      <c r="AB5" s="37"/>
       <c r="AC5" s="37"/>
       <c r="AD5" s="37"/>
       <c r="AE5" s="37"/>
       <c r="AF5" s="37"/>
       <c r="AG5" s="37"/>
       <c r="AH5" s="37"/>
-      <c r="AI5" s="18"/>
-      <c r="AJ5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="17"/>
       <c r="AK5" s="37"/>
       <c r="AL5" s="37"/>
       <c r="AM5" s="37"/>
@@ -2813,18 +3108,14 @@
       <c r="AO5" s="37"/>
       <c r="AP5" s="37"/>
       <c r="AQ5" s="37"/>
-      <c r="AR5" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS5" s="37" t="s">
-        <v>133</v>
-      </c>
+      <c r="AR5" s="37"/>
+      <c r="AS5" s="37"/>
       <c r="AT5" s="37"/>
       <c r="AU5" s="37"/>
       <c r="AV5" s="37"/>
       <c r="AW5" s="37"/>
       <c r="AX5" s="37"/>
-      <c r="AY5" s="37"/>
+      <c r="AY5" s="18"/>
       <c r="AZ5" s="37"/>
       <c r="BA5" s="37"/>
       <c r="BB5" s="37"/>
@@ -2833,11 +3124,31 @@
       <c r="BE5" s="37"/>
       <c r="BF5" s="37"/>
       <c r="BG5" s="37"/>
-      <c r="BH5" s="37"/>
-      <c r="BI5" s="37"/>
+      <c r="BH5" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI5" s="37" t="s">
+        <v>149</v>
+      </c>
       <c r="BJ5" s="37"/>
-    </row>
-    <row r="6" spans="1:62" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK5" s="37"/>
+      <c r="BL5" s="37"/>
+      <c r="BM5" s="37"/>
+      <c r="BN5" s="37"/>
+      <c r="BO5" s="37"/>
+      <c r="BP5" s="37"/>
+      <c r="BQ5" s="37"/>
+      <c r="BR5" s="37"/>
+      <c r="BS5" s="37"/>
+      <c r="BT5" s="37"/>
+      <c r="BU5" s="37"/>
+      <c r="BV5" s="37"/>
+      <c r="BW5" s="37"/>
+      <c r="BX5" s="37"/>
+      <c r="BY5" s="37"/>
+      <c r="BZ5" s="37"/>
+    </row>
+    <row r="6" spans="1:78" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
         <v>23</v>
       </c>
@@ -2848,19 +3159,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
@@ -2881,15 +3192,15 @@
       <c r="Y6" s="37"/>
       <c r="Z6" s="37"/>
       <c r="AA6" s="37"/>
-      <c r="AB6" s="17"/>
+      <c r="AB6" s="37"/>
       <c r="AC6" s="37"/>
       <c r="AD6" s="37"/>
       <c r="AE6" s="37"/>
       <c r="AF6" s="37"/>
       <c r="AG6" s="37"/>
       <c r="AH6" s="37"/>
-      <c r="AI6" s="18"/>
-      <c r="AJ6" s="37"/>
+      <c r="AI6" s="37"/>
+      <c r="AJ6" s="17"/>
       <c r="AK6" s="37"/>
       <c r="AL6" s="37"/>
       <c r="AM6" s="37"/>
@@ -2897,18 +3208,14 @@
       <c r="AO6" s="37"/>
       <c r="AP6" s="37"/>
       <c r="AQ6" s="37"/>
-      <c r="AR6" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS6" s="37" t="s">
-        <v>134</v>
-      </c>
+      <c r="AR6" s="37"/>
+      <c r="AS6" s="37"/>
       <c r="AT6" s="37"/>
       <c r="AU6" s="37"/>
       <c r="AV6" s="37"/>
       <c r="AW6" s="37"/>
       <c r="AX6" s="37"/>
-      <c r="AY6" s="37"/>
+      <c r="AY6" s="18"/>
       <c r="AZ6" s="37"/>
       <c r="BA6" s="37"/>
       <c r="BB6" s="37"/>
@@ -2917,11 +3224,31 @@
       <c r="BE6" s="37"/>
       <c r="BF6" s="37"/>
       <c r="BG6" s="37"/>
-      <c r="BH6" s="37"/>
-      <c r="BI6" s="37"/>
+      <c r="BH6" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI6" s="37" t="s">
+        <v>150</v>
+      </c>
       <c r="BJ6" s="37"/>
-    </row>
-    <row r="7" spans="1:62" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK6" s="37"/>
+      <c r="BL6" s="37"/>
+      <c r="BM6" s="37"/>
+      <c r="BN6" s="37"/>
+      <c r="BO6" s="37"/>
+      <c r="BP6" s="37"/>
+      <c r="BQ6" s="37"/>
+      <c r="BR6" s="37"/>
+      <c r="BS6" s="37"/>
+      <c r="BT6" s="37"/>
+      <c r="BU6" s="37"/>
+      <c r="BV6" s="37"/>
+      <c r="BW6" s="37"/>
+      <c r="BX6" s="37"/>
+      <c r="BY6" s="37"/>
+      <c r="BZ6" s="37"/>
+    </row>
+    <row r="7" spans="1:78" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
         <v>23</v>
       </c>
@@ -2932,19 +3259,19 @@
         <v>3</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
@@ -2958,26 +3285,28 @@
       <c r="R7" s="37"/>
       <c r="S7" s="37"/>
       <c r="T7" s="37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U7" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="V7" s="37"/>
+        <v>149</v>
+      </c>
+      <c r="V7" s="37" t="s">
+        <v>149</v>
+      </c>
       <c r="W7" s="37"/>
       <c r="X7" s="37"/>
       <c r="Y7" s="37"/>
       <c r="Z7" s="37"/>
       <c r="AA7" s="37"/>
-      <c r="AB7" s="17"/>
+      <c r="AB7" s="37"/>
       <c r="AC7" s="37"/>
       <c r="AD7" s="37"/>
       <c r="AE7" s="37"/>
       <c r="AF7" s="37"/>
       <c r="AG7" s="37"/>
       <c r="AH7" s="37"/>
-      <c r="AI7" s="18"/>
-      <c r="AJ7" s="37"/>
+      <c r="AI7" s="37"/>
+      <c r="AJ7" s="17"/>
       <c r="AK7" s="37"/>
       <c r="AL7" s="37"/>
       <c r="AM7" s="37"/>
@@ -2985,18 +3314,14 @@
       <c r="AO7" s="37"/>
       <c r="AP7" s="37"/>
       <c r="AQ7" s="37"/>
-      <c r="AR7" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS7" s="37" t="s">
-        <v>134</v>
-      </c>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="37"/>
       <c r="AT7" s="37"/>
       <c r="AU7" s="37"/>
       <c r="AV7" s="37"/>
       <c r="AW7" s="37"/>
       <c r="AX7" s="37"/>
-      <c r="AY7" s="37"/>
+      <c r="AY7" s="18"/>
       <c r="AZ7" s="37"/>
       <c r="BA7" s="37"/>
       <c r="BB7" s="37"/>
@@ -3005,11 +3330,31 @@
       <c r="BE7" s="37"/>
       <c r="BF7" s="37"/>
       <c r="BG7" s="37"/>
-      <c r="BH7" s="37"/>
-      <c r="BI7" s="37"/>
+      <c r="BH7" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI7" s="37" t="s">
+        <v>150</v>
+      </c>
       <c r="BJ7" s="37"/>
-    </row>
-    <row r="8" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK7" s="37"/>
+      <c r="BL7" s="37"/>
+      <c r="BM7" s="37"/>
+      <c r="BN7" s="37"/>
+      <c r="BO7" s="37"/>
+      <c r="BP7" s="37"/>
+      <c r="BQ7" s="37"/>
+      <c r="BR7" s="37"/>
+      <c r="BS7" s="37"/>
+      <c r="BT7" s="37"/>
+      <c r="BU7" s="37"/>
+      <c r="BV7" s="37"/>
+      <c r="BW7" s="37"/>
+      <c r="BX7" s="37"/>
+      <c r="BY7" s="37"/>
+      <c r="BZ7" s="37"/>
+    </row>
+    <row r="8" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="41" t="s">
         <v>27</v>
       </c>
@@ -3020,19 +3365,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
@@ -3047,34 +3392,19 @@
       <c r="S8" s="42"/>
       <c r="T8" s="42"/>
       <c r="U8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="10"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
       <c r="AE8" s="42"/>
       <c r="AF8" s="42"/>
       <c r="AG8" s="42"/>
       <c r="AH8" s="42"/>
-      <c r="AI8" s="11"/>
-      <c r="AJ8" s="42"/>
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="10"/>
       <c r="AK8" s="42"/>
       <c r="AL8" s="42"/>
       <c r="AM8" s="42"/>
       <c r="AN8" s="42"/>
       <c r="AO8" s="42"/>
       <c r="AP8" s="42"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
-      <c r="AV8" s="42"/>
-      <c r="AX8" s="42"/>
-      <c r="AY8" s="42"/>
+      <c r="AY8" s="11"/>
       <c r="AZ8" s="42"/>
       <c r="BA8" s="42"/>
       <c r="BB8" s="42"/>
@@ -3086,8 +3416,23 @@
       <c r="BH8" s="42"/>
       <c r="BI8" s="42"/>
       <c r="BJ8" s="42"/>
-    </row>
-    <row r="9" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK8" s="42"/>
+      <c r="BL8" s="42"/>
+      <c r="BN8" s="42"/>
+      <c r="BO8" s="42"/>
+      <c r="BP8" s="42"/>
+      <c r="BQ8" s="42"/>
+      <c r="BR8" s="42"/>
+      <c r="BS8" s="42"/>
+      <c r="BT8" s="42"/>
+      <c r="BU8" s="42"/>
+      <c r="BV8" s="42"/>
+      <c r="BW8" s="42"/>
+      <c r="BX8" s="42"/>
+      <c r="BY8" s="42"/>
+      <c r="BZ8" s="42"/>
+    </row>
+    <row r="9" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>27</v>
       </c>
@@ -3098,19 +3443,19 @@
         <v>1</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
@@ -3125,34 +3470,19 @@
       <c r="S9" s="42"/>
       <c r="T9" s="42"/>
       <c r="U9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="42"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="42"/>
-      <c r="AD9" s="42"/>
       <c r="AE9" s="42"/>
       <c r="AF9" s="42"/>
       <c r="AG9" s="42"/>
       <c r="AH9" s="42"/>
-      <c r="AI9" s="11"/>
-      <c r="AJ9" s="42"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="10"/>
       <c r="AK9" s="42"/>
       <c r="AL9" s="42"/>
       <c r="AM9" s="42"/>
       <c r="AN9" s="42"/>
       <c r="AO9" s="42"/>
       <c r="AP9" s="42"/>
-      <c r="AQ9" s="42"/>
-      <c r="AR9" s="42"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="42"/>
-      <c r="AV9" s="42"/>
-      <c r="AX9" s="42"/>
-      <c r="AY9" s="42"/>
+      <c r="AY9" s="11"/>
       <c r="AZ9" s="42"/>
       <c r="BA9" s="42"/>
       <c r="BB9" s="42"/>
@@ -3164,8 +3494,23 @@
       <c r="BH9" s="42"/>
       <c r="BI9" s="42"/>
       <c r="BJ9" s="42"/>
-    </row>
-    <row r="10" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK9" s="42"/>
+      <c r="BL9" s="42"/>
+      <c r="BN9" s="42"/>
+      <c r="BO9" s="42"/>
+      <c r="BP9" s="42"/>
+      <c r="BQ9" s="42"/>
+      <c r="BR9" s="42"/>
+      <c r="BS9" s="42"/>
+      <c r="BT9" s="42"/>
+      <c r="BU9" s="42"/>
+      <c r="BV9" s="42"/>
+      <c r="BW9" s="42"/>
+      <c r="BX9" s="42"/>
+      <c r="BY9" s="42"/>
+      <c r="BZ9" s="42"/>
+    </row>
+    <row r="10" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="42" t="s">
         <v>18</v>
       </c>
@@ -3193,87 +3538,95 @@
       <c r="S10" s="42"/>
       <c r="T10" s="42"/>
       <c r="U10" s="42"/>
-      <c r="W10" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="X10" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="Y10" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB10" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AC10" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AD10" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AE10" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF10" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="AG10" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AH10" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI10" s="10" t="s">
-        <v>123</v>
+      <c r="AE10" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF10" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG10" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH10" s="42"/>
+      <c r="AI10" s="42" t="s">
+        <v>131</v>
       </c>
       <c r="AJ10" s="10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AK10" s="10" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="AM10" s="10" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="AN10" s="10" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
       <c r="AO10" s="10" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="AP10" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ10" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
-      <c r="AV10" s="42"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="42"/>
-      <c r="BA10" s="42"/>
-      <c r="BB10" s="42"/>
-      <c r="BC10" s="42"/>
-      <c r="BD10" s="42"/>
-      <c r="BE10" s="42"/>
-      <c r="BF10" s="42"/>
-      <c r="BG10" s="42"/>
+        <v>138</v>
+      </c>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ10" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA10" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB10" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD10" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BE10" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF10" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="BG10" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="BH10" s="42"/>
       <c r="BI10" s="42"/>
       <c r="BJ10" s="42"/>
-    </row>
-    <row r="11" spans="1:62" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK10" s="42"/>
+      <c r="BL10" s="42"/>
+      <c r="BN10" s="42"/>
+      <c r="BO10" s="42"/>
+      <c r="BP10" s="42"/>
+      <c r="BQ10" s="42"/>
+      <c r="BR10" s="42"/>
+      <c r="BS10" s="42"/>
+      <c r="BT10" s="42"/>
+      <c r="BU10" s="42"/>
+      <c r="BV10" s="42"/>
+      <c r="BW10" s="42"/>
+      <c r="BX10" s="42"/>
+      <c r="BY10" s="42"/>
+      <c r="BZ10" s="42"/>
+    </row>
+    <row r="11" spans="1:78" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="38" t="s">
         <v>32</v>
       </c>
@@ -3284,19 +3637,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
@@ -3310,26 +3663,28 @@
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
       <c r="T11" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U11" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="V11" s="38"/>
+        <v>149</v>
+      </c>
+      <c r="V11" s="38" t="s">
+        <v>149</v>
+      </c>
       <c r="W11" s="38"/>
       <c r="X11" s="38"/>
       <c r="Y11" s="38"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="19"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
       <c r="AC11" s="38"/>
       <c r="AD11" s="38"/>
       <c r="AE11" s="38"/>
       <c r="AF11" s="38"/>
       <c r="AG11" s="38"/>
-      <c r="AH11" s="38"/>
-      <c r="AI11" s="38"/>
-      <c r="AJ11" s="38"/>
+      <c r="AH11" s="42"/>
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="19"/>
       <c r="AK11" s="38"/>
       <c r="AL11" s="38"/>
       <c r="AM11" s="38"/>
@@ -3356,8 +3711,24 @@
       <c r="BH11" s="38"/>
       <c r="BI11" s="38"/>
       <c r="BJ11" s="38"/>
-    </row>
-    <row r="12" spans="1:62" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK11" s="38"/>
+      <c r="BL11" s="38"/>
+      <c r="BM11" s="38"/>
+      <c r="BN11" s="38"/>
+      <c r="BO11" s="38"/>
+      <c r="BP11" s="38"/>
+      <c r="BQ11" s="38"/>
+      <c r="BR11" s="38"/>
+      <c r="BS11" s="38"/>
+      <c r="BT11" s="38"/>
+      <c r="BU11" s="38"/>
+      <c r="BV11" s="38"/>
+      <c r="BW11" s="38"/>
+      <c r="BX11" s="38"/>
+      <c r="BY11" s="38"/>
+      <c r="BZ11" s="38"/>
+    </row>
+    <row r="12" spans="1:78" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="38" t="s">
         <v>32</v>
       </c>
@@ -3368,19 +3739,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
@@ -3394,18 +3765,20 @@
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
       <c r="T12" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U12" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="V12" s="38"/>
+        <v>152</v>
+      </c>
+      <c r="V12" s="38" t="s">
+        <v>152</v>
+      </c>
       <c r="W12" s="38"/>
       <c r="X12" s="38"/>
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
       <c r="AA12" s="38"/>
-      <c r="AB12" s="19"/>
+      <c r="AB12" s="38"/>
       <c r="AC12" s="38"/>
       <c r="AD12" s="38"/>
       <c r="AE12" s="38"/>
@@ -3413,7 +3786,7 @@
       <c r="AG12" s="38"/>
       <c r="AH12" s="38"/>
       <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
+      <c r="AJ12" s="19"/>
       <c r="AK12" s="38"/>
       <c r="AL12" s="38"/>
       <c r="AM12" s="38"/>
@@ -3440,8 +3813,24 @@
       <c r="BH12" s="38"/>
       <c r="BI12" s="38"/>
       <c r="BJ12" s="38"/>
-    </row>
-    <row r="13" spans="1:62" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK12" s="38"/>
+      <c r="BL12" s="38"/>
+      <c r="BM12" s="38"/>
+      <c r="BN12" s="38"/>
+      <c r="BO12" s="38"/>
+      <c r="BP12" s="38"/>
+      <c r="BQ12" s="38"/>
+      <c r="BR12" s="38"/>
+      <c r="BS12" s="38"/>
+      <c r="BT12" s="38"/>
+      <c r="BU12" s="38"/>
+      <c r="BV12" s="38"/>
+      <c r="BW12" s="38"/>
+      <c r="BX12" s="38"/>
+      <c r="BY12" s="38"/>
+      <c r="BZ12" s="38"/>
+    </row>
+    <row r="13" spans="1:78" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="24" t="s">
         <v>28</v>
       </c>
@@ -3452,74 +3841,76 @@
         <v>1</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I13" s="36" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="K13" s="36" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="L13" s="36" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="M13" s="36" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="N13" s="36" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="O13" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P13" s="36" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="Q13" s="36" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="R13" s="36" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="S13" s="36" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="T13" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U13" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="V13" s="36"/>
+        <v>149</v>
+      </c>
+      <c r="V13" s="36" t="s">
+        <v>149</v>
+      </c>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
       <c r="Y13" s="36"/>
       <c r="Z13" s="36"/>
       <c r="AA13" s="36"/>
-      <c r="AB13" s="26"/>
+      <c r="AB13" s="36"/>
       <c r="AC13" s="36"/>
       <c r="AD13" s="36"/>
       <c r="AE13" s="36"/>
       <c r="AF13" s="36"/>
       <c r="AG13" s="36"/>
       <c r="AH13" s="36"/>
-      <c r="AI13" s="27"/>
-      <c r="AJ13" s="36"/>
+      <c r="AI13" s="36"/>
+      <c r="AJ13" s="26"/>
       <c r="AK13" s="36"/>
       <c r="AL13" s="36"/>
       <c r="AM13" s="36"/>
@@ -3534,7 +3925,7 @@
       <c r="AV13" s="36"/>
       <c r="AW13" s="36"/>
       <c r="AX13" s="36"/>
-      <c r="AY13" s="36"/>
+      <c r="AY13" s="27"/>
       <c r="AZ13" s="36"/>
       <c r="BA13" s="36"/>
       <c r="BB13" s="36"/>
@@ -3546,8 +3937,24 @@
       <c r="BH13" s="36"/>
       <c r="BI13" s="36"/>
       <c r="BJ13" s="36"/>
-    </row>
-    <row r="14" spans="1:62" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK13" s="36"/>
+      <c r="BL13" s="36"/>
+      <c r="BM13" s="36"/>
+      <c r="BN13" s="36"/>
+      <c r="BO13" s="36"/>
+      <c r="BP13" s="36"/>
+      <c r="BQ13" s="36"/>
+      <c r="BR13" s="36"/>
+      <c r="BS13" s="36"/>
+      <c r="BT13" s="36"/>
+      <c r="BU13" s="36"/>
+      <c r="BV13" s="36"/>
+      <c r="BW13" s="36"/>
+      <c r="BX13" s="36"/>
+      <c r="BY13" s="36"/>
+      <c r="BZ13" s="36"/>
+    </row>
+    <row r="14" spans="1:78" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
         <v>25</v>
       </c>
@@ -3558,19 +3965,19 @@
         <v>1</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
@@ -3584,12 +3991,14 @@
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
       <c r="T14" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="V14" s="35"/>
+        <v>149</v>
+      </c>
+      <c r="V14" s="35" t="s">
+        <v>149</v>
+      </c>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
       <c r="Y14" s="35"/>
@@ -3600,7 +4009,7 @@
       <c r="AD14" s="35"/>
       <c r="AE14" s="35"/>
       <c r="AF14" s="35"/>
-      <c r="AG14" s="14"/>
+      <c r="AG14" s="35"/>
       <c r="AH14" s="35"/>
       <c r="AI14" s="35"/>
       <c r="AJ14" s="35"/>
@@ -3608,7 +4017,7 @@
       <c r="AL14" s="35"/>
       <c r="AM14" s="35"/>
       <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
+      <c r="AO14" s="14"/>
       <c r="AP14" s="35"/>
       <c r="AQ14" s="35"/>
       <c r="AR14" s="35"/>
@@ -3630,8 +4039,24 @@
       <c r="BH14" s="35"/>
       <c r="BI14" s="35"/>
       <c r="BJ14" s="35"/>
-    </row>
-    <row r="15" spans="1:62" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK14" s="35"/>
+      <c r="BL14" s="35"/>
+      <c r="BM14" s="35"/>
+      <c r="BN14" s="35"/>
+      <c r="BO14" s="35"/>
+      <c r="BP14" s="35"/>
+      <c r="BQ14" s="35"/>
+      <c r="BR14" s="35"/>
+      <c r="BS14" s="35"/>
+      <c r="BT14" s="35"/>
+      <c r="BU14" s="35"/>
+      <c r="BV14" s="35"/>
+      <c r="BW14" s="35"/>
+      <c r="BX14" s="35"/>
+      <c r="BY14" s="35"/>
+      <c r="BZ14" s="35"/>
+    </row>
+    <row r="15" spans="1:78" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="35" t="s">
         <v>26</v>
       </c>
@@ -3642,19 +4067,19 @@
         <v>1</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
@@ -3668,12 +4093,14 @@
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
       <c r="T15" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="V15" s="35"/>
+        <v>149</v>
+      </c>
+      <c r="V15" s="35" t="s">
+        <v>149</v>
+      </c>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
       <c r="Y15" s="35"/>
@@ -3684,7 +4111,7 @@
       <c r="AD15" s="35"/>
       <c r="AE15" s="35"/>
       <c r="AF15" s="35"/>
-      <c r="AG15" s="14"/>
+      <c r="AG15" s="35"/>
       <c r="AH15" s="35"/>
       <c r="AI15" s="35"/>
       <c r="AJ15" s="35"/>
@@ -3692,7 +4119,7 @@
       <c r="AL15" s="35"/>
       <c r="AM15" s="35"/>
       <c r="AN15" s="35"/>
-      <c r="AO15" s="35"/>
+      <c r="AO15" s="14"/>
       <c r="AP15" s="35"/>
       <c r="AQ15" s="35"/>
       <c r="AR15" s="35"/>
@@ -3714,10 +4141,26 @@
       <c r="BH15" s="35"/>
       <c r="BI15" s="35"/>
       <c r="BJ15" s="35"/>
-    </row>
-    <row r="16" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK15" s="35"/>
+      <c r="BL15" s="35"/>
+      <c r="BM15" s="35"/>
+      <c r="BN15" s="35"/>
+      <c r="BO15" s="35"/>
+      <c r="BP15" s="35"/>
+      <c r="BQ15" s="35"/>
+      <c r="BR15" s="35"/>
+      <c r="BS15" s="35"/>
+      <c r="BT15" s="35"/>
+      <c r="BU15" s="35"/>
+      <c r="BV15" s="35"/>
+      <c r="BW15" s="35"/>
+      <c r="BX15" s="35"/>
+      <c r="BY15" s="35"/>
+      <c r="BZ15" s="35"/>
+    </row>
+    <row r="16" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="42" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="41">
         <v>1</v>
@@ -3726,19 +4169,19 @@
         <v>1</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="41"/>
@@ -3751,18 +4194,15 @@
       <c r="Q16" s="42"/>
       <c r="R16" s="42"/>
       <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
+      <c r="T16" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="U16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="20"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
+      <c r="V16" s="42" t="s">
+        <v>152</v>
+      </c>
       <c r="AE16" s="42"/>
-      <c r="AF16" s="42"/>
+      <c r="AF16" s="20"/>
       <c r="AG16" s="42"/>
       <c r="AH16" s="42"/>
       <c r="AI16" s="42"/>
@@ -3773,13 +4213,6 @@
       <c r="AN16" s="42"/>
       <c r="AO16" s="42"/>
       <c r="AP16" s="42"/>
-      <c r="AQ16" s="42"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="42"/>
-      <c r="AU16" s="42"/>
-      <c r="AV16" s="42"/>
-      <c r="AX16" s="42"/>
       <c r="AY16" s="42"/>
       <c r="AZ16" s="42"/>
       <c r="BA16" s="42"/>
@@ -3792,10 +4225,25 @@
       <c r="BH16" s="42"/>
       <c r="BI16" s="42"/>
       <c r="BJ16" s="42"/>
-    </row>
-    <row r="17" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK16" s="42"/>
+      <c r="BL16" s="42"/>
+      <c r="BN16" s="42"/>
+      <c r="BO16" s="42"/>
+      <c r="BP16" s="42"/>
+      <c r="BQ16" s="42"/>
+      <c r="BR16" s="42"/>
+      <c r="BS16" s="42"/>
+      <c r="BT16" s="42"/>
+      <c r="BU16" s="42"/>
+      <c r="BV16" s="42"/>
+      <c r="BW16" s="42"/>
+      <c r="BX16" s="42"/>
+      <c r="BY16" s="42"/>
+      <c r="BZ16" s="42"/>
+    </row>
+    <row r="17" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" s="41">
         <v>1</v>
@@ -3804,19 +4252,19 @@
         <v>1</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
@@ -3830,24 +4278,19 @@
       <c r="R17" s="42"/>
       <c r="S17" s="42"/>
       <c r="T17" s="42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U17" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
+        <v>152</v>
+      </c>
+      <c r="V17" s="42" t="s">
+        <v>152</v>
+      </c>
       <c r="AE17" s="42"/>
       <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
+      <c r="AG17" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="AH17" s="42"/>
       <c r="AI17" s="42"/>
       <c r="AJ17" s="42"/>
@@ -3857,47 +4300,55 @@
       <c r="AN17" s="42"/>
       <c r="AO17" s="42"/>
       <c r="AP17" s="42"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="42"/>
-      <c r="AT17" s="42"/>
-      <c r="AU17" s="42"/>
-      <c r="AV17" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX17" s="42"/>
-      <c r="AY17" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="AZ17" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="BA17" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="BB17" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="BC17" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="BD17" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="BE17" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="BF17" s="42" t="s">
-        <v>144</v>
-      </c>
+      <c r="AY17" s="42"/>
+      <c r="AZ17" s="42"/>
+      <c r="BA17" s="42"/>
+      <c r="BB17" s="42"/>
+      <c r="BC17" s="42"/>
+      <c r="BD17" s="42"/>
+      <c r="BE17" s="42"/>
+      <c r="BF17" s="42"/>
       <c r="BG17" s="42"/>
       <c r="BH17" s="42"/>
       <c r="BI17" s="42"/>
       <c r="BJ17" s="42"/>
-    </row>
-    <row r="18" spans="1:62" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK17" s="42"/>
+      <c r="BL17" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN17" s="42"/>
+      <c r="BO17" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="BP17" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="BQ17" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="BR17" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="BS17" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT17" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="BU17" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="BV17" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="BW17" s="42"/>
+      <c r="BX17" s="42"/>
+      <c r="BY17" s="42"/>
+      <c r="BZ17" s="42"/>
+    </row>
+    <row r="18" spans="1:78" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B18" s="41">
         <v>1</v>
@@ -3906,10 +4357,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
@@ -3930,9 +4381,7 @@
       <c r="V18" s="42"/>
       <c r="W18" s="42"/>
       <c r="X18" s="42"/>
-      <c r="Y18" s="42" t="s">
-        <v>56</v>
-      </c>
+      <c r="Y18" s="42"/>
       <c r="Z18" s="42"/>
       <c r="AA18" s="42"/>
       <c r="AB18" s="42"/>
@@ -3940,7 +4389,9 @@
       <c r="AD18" s="42"/>
       <c r="AE18" s="42"/>
       <c r="AF18" s="42"/>
-      <c r="AG18" s="42"/>
+      <c r="AG18" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="AH18" s="42"/>
       <c r="AI18" s="42"/>
       <c r="AJ18" s="42"/>
@@ -3956,42 +4407,58 @@
       <c r="AT18" s="42"/>
       <c r="AU18" s="42"/>
       <c r="AV18" s="42"/>
-      <c r="AW18" s="42" t="s">
-        <v>57</v>
-      </c>
+      <c r="AW18" s="42"/>
       <c r="AX18" s="42"/>
-      <c r="AY18" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="AZ18" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="BA18" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="BB18" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="BC18" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="BD18" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="BE18" s="42" t="s">
-        <v>143</v>
-      </c>
+      <c r="AY18" s="42"/>
+      <c r="AZ18" s="42"/>
+      <c r="BA18" s="42"/>
+      <c r="BB18" s="42"/>
+      <c r="BC18" s="42"/>
+      <c r="BD18" s="42"/>
+      <c r="BE18" s="42"/>
       <c r="BF18" s="42"/>
       <c r="BG18" s="42"/>
       <c r="BH18" s="42"/>
-      <c r="BI18" s="42" t="s">
-        <v>145</v>
-      </c>
+      <c r="BI18" s="42"/>
       <c r="BJ18" s="42"/>
-    </row>
-    <row r="19" spans="1:62" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK18" s="42"/>
+      <c r="BL18" s="42"/>
+      <c r="BM18" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN18" s="42"/>
+      <c r="BO18" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="BP18" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="BQ18" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="BR18" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="BS18" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT18" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="BU18" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="BV18" s="42"/>
+      <c r="BW18" s="42"/>
+      <c r="BX18" s="42"/>
+      <c r="BY18" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="BZ18" s="42"/>
+    </row>
+    <row r="19" spans="1:78" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" s="41">
         <v>1</v>
@@ -4020,9 +4487,7 @@
       <c r="V19" s="42"/>
       <c r="W19" s="42"/>
       <c r="X19" s="42"/>
-      <c r="Y19" s="42" t="s">
-        <v>56</v>
-      </c>
+      <c r="Y19" s="42"/>
       <c r="Z19" s="42"/>
       <c r="AA19" s="42"/>
       <c r="AB19" s="42"/>
@@ -4030,7 +4495,9 @@
       <c r="AD19" s="42"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
-      <c r="AG19" s="42"/>
+      <c r="AG19" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="AH19" s="42"/>
       <c r="AI19" s="42"/>
       <c r="AJ19" s="42"/>
@@ -4047,49 +4514,65 @@
       <c r="AU19" s="42"/>
       <c r="AV19" s="42"/>
       <c r="AW19" s="42"/>
-      <c r="AX19" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="AY19" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="AZ19" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="BA19" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="BB19" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="BC19" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="BD19" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="BE19" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="BF19" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="BG19" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="BH19" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="BI19" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="BJ19" s="42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AX19" s="42"/>
+      <c r="AY19" s="42"/>
+      <c r="AZ19" s="42"/>
+      <c r="BA19" s="42"/>
+      <c r="BB19" s="42"/>
+      <c r="BC19" s="42"/>
+      <c r="BD19" s="42"/>
+      <c r="BE19" s="42"/>
+      <c r="BF19" s="42"/>
+      <c r="BG19" s="42"/>
+      <c r="BH19" s="42"/>
+      <c r="BI19" s="42"/>
+      <c r="BJ19" s="42"/>
+      <c r="BK19" s="42"/>
+      <c r="BL19" s="42"/>
+      <c r="BM19" s="42"/>
+      <c r="BN19" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="BO19" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="BP19" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="BQ19" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="BR19" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="BS19" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="BT19" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="BU19" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="BV19" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="BW19" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="BX19" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="BY19" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="BZ19" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="42" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B20" s="41">
         <v>1</v>
@@ -4098,13 +4581,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E20" s="42"/>
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
       <c r="I20" s="42" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
@@ -4118,14 +4601,6 @@
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
       <c r="U20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
       <c r="AE20" s="42"/>
       <c r="AF20" s="42"/>
       <c r="AG20" s="42"/>
@@ -4138,13 +4613,6 @@
       <c r="AN20" s="42"/>
       <c r="AO20" s="42"/>
       <c r="AP20" s="42"/>
-      <c r="AQ20" s="42"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="42"/>
-      <c r="AU20" s="42"/>
-      <c r="AV20" s="42"/>
-      <c r="AX20" s="42"/>
       <c r="AY20" s="42"/>
       <c r="AZ20" s="42"/>
       <c r="BA20" s="42"/>
@@ -4157,8 +4625,23 @@
       <c r="BH20" s="42"/>
       <c r="BI20" s="42"/>
       <c r="BJ20" s="42"/>
-    </row>
-    <row r="21" spans="1:62" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK20" s="42"/>
+      <c r="BL20" s="42"/>
+      <c r="BN20" s="42"/>
+      <c r="BO20" s="42"/>
+      <c r="BP20" s="42"/>
+      <c r="BQ20" s="42"/>
+      <c r="BR20" s="42"/>
+      <c r="BS20" s="42"/>
+      <c r="BT20" s="42"/>
+      <c r="BU20" s="42"/>
+      <c r="BV20" s="42"/>
+      <c r="BW20" s="42"/>
+      <c r="BX20" s="42"/>
+      <c r="BY20" s="42"/>
+      <c r="BZ20" s="42"/>
+    </row>
+    <row r="21" spans="1:78" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="38" t="s">
         <v>37</v>
       </c>
@@ -4169,19 +4652,19 @@
         <v>1</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="38"/>
@@ -4195,26 +4678,28 @@
       <c r="R21" s="38"/>
       <c r="S21" s="38"/>
       <c r="T21" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="V21" s="8"/>
-      <c r="W21" s="38"/>
-      <c r="X21" s="38"/>
-      <c r="Y21" s="38"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="42"/>
-      <c r="AB21" s="19"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
+        <v>165</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
       <c r="AE21" s="38"/>
       <c r="AF21" s="38"/>
       <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="42"/>
+      <c r="AJ21" s="19"/>
       <c r="AK21" s="38"/>
       <c r="AL21" s="38"/>
       <c r="AM21" s="38"/>
@@ -4241,8 +4726,24 @@
       <c r="BH21" s="38"/>
       <c r="BI21" s="38"/>
       <c r="BJ21" s="38"/>
-    </row>
-    <row r="22" spans="1:62" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK21" s="38"/>
+      <c r="BL21" s="38"/>
+      <c r="BM21" s="38"/>
+      <c r="BN21" s="38"/>
+      <c r="BO21" s="38"/>
+      <c r="BP21" s="38"/>
+      <c r="BQ21" s="38"/>
+      <c r="BR21" s="38"/>
+      <c r="BS21" s="38"/>
+      <c r="BT21" s="38"/>
+      <c r="BU21" s="38"/>
+      <c r="BV21" s="38"/>
+      <c r="BW21" s="38"/>
+      <c r="BX21" s="38"/>
+      <c r="BY21" s="38"/>
+      <c r="BZ21" s="38"/>
+    </row>
+    <row r="22" spans="1:78" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>40</v>
       </c>
@@ -4253,19 +4754,19 @@
         <v>1</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E22" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H22" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
@@ -4279,12 +4780,14 @@
       <c r="R22" s="35"/>
       <c r="S22" s="35"/>
       <c r="T22" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U22" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="V22" s="35"/>
+        <v>149</v>
+      </c>
+      <c r="V22" s="35" t="s">
+        <v>149</v>
+      </c>
       <c r="W22" s="35"/>
       <c r="X22" s="35"/>
       <c r="Y22" s="35"/>
@@ -4295,7 +4798,7 @@
       <c r="AD22" s="35"/>
       <c r="AE22" s="35"/>
       <c r="AF22" s="35"/>
-      <c r="AG22" s="14"/>
+      <c r="AG22" s="35"/>
       <c r="AH22" s="35"/>
       <c r="AI22" s="35"/>
       <c r="AJ22" s="35"/>
@@ -4303,7 +4806,7 @@
       <c r="AL22" s="35"/>
       <c r="AM22" s="35"/>
       <c r="AN22" s="35"/>
-      <c r="AO22" s="35"/>
+      <c r="AO22" s="14"/>
       <c r="AP22" s="35"/>
       <c r="AQ22" s="35"/>
       <c r="AR22" s="35"/>
@@ -4325,8 +4828,24 @@
       <c r="BH22" s="35"/>
       <c r="BI22" s="35"/>
       <c r="BJ22" s="35"/>
-    </row>
-    <row r="23" spans="1:62" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK22" s="35"/>
+      <c r="BL22" s="35"/>
+      <c r="BM22" s="35"/>
+      <c r="BN22" s="35"/>
+      <c r="BO22" s="35"/>
+      <c r="BP22" s="35"/>
+      <c r="BQ22" s="35"/>
+      <c r="BR22" s="35"/>
+      <c r="BS22" s="35"/>
+      <c r="BT22" s="35"/>
+      <c r="BU22" s="35"/>
+      <c r="BV22" s="35"/>
+      <c r="BW22" s="35"/>
+      <c r="BX22" s="35"/>
+      <c r="BY22" s="35"/>
+      <c r="BZ22" s="35"/>
+    </row>
+    <row r="23" spans="1:78" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>41</v>
       </c>
@@ -4337,19 +4856,19 @@
         <v>1</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E23" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
@@ -4363,12 +4882,14 @@
       <c r="R23" s="38"/>
       <c r="S23" s="38"/>
       <c r="T23" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U23" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="V23" s="38"/>
+        <v>149</v>
+      </c>
+      <c r="V23" s="38" t="s">
+        <v>149</v>
+      </c>
       <c r="W23" s="38"/>
       <c r="X23" s="38"/>
       <c r="Y23" s="38"/>
@@ -4379,7 +4900,7 @@
       <c r="AD23" s="38"/>
       <c r="AE23" s="38"/>
       <c r="AF23" s="38"/>
-      <c r="AG23" s="32"/>
+      <c r="AG23" s="38"/>
       <c r="AH23" s="38"/>
       <c r="AI23" s="38"/>
       <c r="AJ23" s="38"/>
@@ -4387,7 +4908,7 @@
       <c r="AL23" s="38"/>
       <c r="AM23" s="38"/>
       <c r="AN23" s="38"/>
-      <c r="AO23" s="38"/>
+      <c r="AO23" s="32"/>
       <c r="AP23" s="38"/>
       <c r="AQ23" s="38"/>
       <c r="AR23" s="38"/>
@@ -4409,8 +4930,24 @@
       <c r="BH23" s="38"/>
       <c r="BI23" s="38"/>
       <c r="BJ23" s="38"/>
-    </row>
-    <row r="24" spans="1:62" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="BK23" s="38"/>
+      <c r="BL23" s="38"/>
+      <c r="BM23" s="38"/>
+      <c r="BN23" s="38"/>
+      <c r="BO23" s="38"/>
+      <c r="BP23" s="38"/>
+      <c r="BQ23" s="38"/>
+      <c r="BR23" s="38"/>
+      <c r="BS23" s="38"/>
+      <c r="BT23" s="38"/>
+      <c r="BU23" s="38"/>
+      <c r="BV23" s="38"/>
+      <c r="BW23" s="38"/>
+      <c r="BX23" s="38"/>
+      <c r="BY23" s="38"/>
+      <c r="BZ23" s="38"/>
+    </row>
+    <row r="24" spans="1:78" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="44" t="s">
         <v>45</v>
       </c>
@@ -4421,61 +4958,61 @@
         <v>1</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" s="44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G24" s="44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H24" s="44" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="I24" s="44" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J24" s="44" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="K24" s="44" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="L24" s="44" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="M24" s="44" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="N24" s="44" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="O24" s="44" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="P24" s="44" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="44" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="R24" s="44" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="S24" s="44" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="T24" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="V24" s="44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:62" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="W24" s="44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:78" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
@@ -4486,29 +5023,32 @@
         <v>1</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H25" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T25" s="35" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U25" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG25" s="14"/>
-    </row>
-    <row r="26" spans="1:62" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="V25" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO25" s="14"/>
+    </row>
+    <row r="26" spans="1:78" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>48</v>
       </c>
@@ -4519,31 +5059,34 @@
         <v>1</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="T26" s="38" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U26" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG26" s="32"/>
-    </row>
-    <row r="27" spans="1:62" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+      <c r="V26" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO26" s="32"/>
+    </row>
+    <row r="27" spans="1:78" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="42" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B27" s="41">
         <v>1</v>
@@ -4552,22 +5095,214 @@
         <v>1</v>
       </c>
       <c r="D27" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E27" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J27" s="41"/>
-      <c r="X27" s="20"/>
+      <c r="AF27" s="20"/>
+    </row>
+    <row r="28" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="42">
+        <v>1</v>
+      </c>
+      <c r="C28" s="42">
+        <v>1</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="I28" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="K28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="L28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="M28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="N28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="O28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="P28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="R28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="S28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="T28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="U28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="V28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="W28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="X28" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y28" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z28" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AB28" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE28" s="42"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="42"/>
+      <c r="AJ28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AP28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AW28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX28" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY28" s="42"/>
+      <c r="AZ28" s="42"/>
+      <c r="BA28" s="42"/>
+      <c r="BB28" s="42"/>
+      <c r="BC28" s="42"/>
+      <c r="BD28" s="42"/>
+      <c r="BE28" s="42"/>
+      <c r="BF28" s="42"/>
+      <c r="BG28" s="42"/>
+      <c r="BH28" s="42"/>
+      <c r="BI28" s="42"/>
+      <c r="BJ28" s="42"/>
+      <c r="BK28" s="42"/>
+      <c r="BL28" s="42"/>
+      <c r="BN28" s="42"/>
+      <c r="BO28" s="42"/>
+      <c r="BP28" s="42"/>
+      <c r="BQ28" s="42"/>
+      <c r="BR28" s="42"/>
+      <c r="BS28" s="42"/>
+      <c r="BT28" s="42"/>
+      <c r="BU28" s="42"/>
+      <c r="BV28" s="42"/>
+      <c r="BW28" s="42"/>
+      <c r="BX28" s="42"/>
+      <c r="BY28" s="42"/>
+      <c r="BZ28" s="42"/>
+    </row>
+    <row r="29" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4582,22 +5317,22 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="17.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.90625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.81640625" style="2" customWidth="1"/>
     <col min="11" max="12" width="19.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="27.08984375" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="8.90625" style="2"/>
+    <col min="16" max="16" width="20.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.1796875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4611,46 +5346,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="L1" s="42" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="M1" s="42" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="N1" s="42" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O1" s="42" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="P1" s="42" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4665,36 +5400,36 @@
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q2" s="42"/>
     </row>
@@ -4709,43 +5444,43 @@
         <v>1</v>
       </c>
       <c r="D3" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="N3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="37" t="s">
+      <c r="O3" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>54</v>
-      </c>
       <c r="P3" s="21" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q3" s="37"/>
     </row>
@@ -4760,43 +5495,43 @@
         <v>1</v>
       </c>
       <c r="D4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="N4" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="M4" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>54</v>
-      </c>
       <c r="O4" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P4" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q4" s="42"/>
     </row>
@@ -4811,43 +5546,43 @@
         <v>1</v>
       </c>
       <c r="D5" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="N5" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>54</v>
-      </c>
       <c r="O5" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P5" s="41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q5" s="42"/>
     </row>
@@ -4862,46 +5597,46 @@
         <v>1</v>
       </c>
       <c r="D6" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="N6" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>54</v>
-      </c>
       <c r="O6" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4915,46 +5650,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="N7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>54</v>
-      </c>
       <c r="O7" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4968,46 +5703,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="N8" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>54</v>
-      </c>
       <c r="O8" s="24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5021,46 +5756,46 @@
         <v>1</v>
       </c>
       <c r="D9" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="N9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="O9" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5074,46 +5809,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="N10" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="O10" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5127,46 +5862,46 @@
         <v>1</v>
       </c>
       <c r="D11" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="N11" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="O11" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5180,46 +5915,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="N12" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="O12" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5233,46 +5968,46 @@
         <v>1</v>
       </c>
       <c r="D13" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="N13" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="O13" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5286,46 +6021,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="N14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>54</v>
-      </c>
       <c r="O14" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5335,6 +6070,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -5551,7 +6296,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5560,17 +6305,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5589,20 +6334,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\TestData30jan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata2feb\updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F46057-91AC-4C6A-886F-44B4F7F6AB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4EC5F5-475C-49E5-8DF9-E444624CD832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="185">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -197,7 +197,13 @@
     <t>testT4148</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>testT4273</t>
+  </si>
+  <si>
+    <t>NonInvestigativeCaseDataSetup1</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t>PROFILE_ICON</t>
@@ -587,7 +593,7 @@
     <t>Fresno</t>
   </si>
   <si>
-    <t>testT4273</t>
+    <t>testT4145_1</t>
   </si>
 </sst>
 </file>
@@ -662,7 +668,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -735,6 +741,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -776,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -827,6 +839,8 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1141,11 +1155,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1747,204 +1761,252 @@
       <c r="M22" s="8"/>
       <c r="N22" s="38"/>
     </row>
-    <row r="23" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:14" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="8">
+        <v>1</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="8"/>
+    </row>
+    <row r="24" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="35">
-        <v>1</v>
-      </c>
-      <c r="C23" s="35">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="B24" s="35">
+        <v>1</v>
+      </c>
+      <c r="C24" s="35">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="6" t="s">
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-    </row>
-    <row r="24" spans="1:14" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="29" t="s">
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+    </row>
+    <row r="25" spans="1:14" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="30">
-        <v>1</v>
-      </c>
-      <c r="C24" s="30">
-        <v>1</v>
-      </c>
-      <c r="D24" s="29" t="s">
+      <c r="B25" s="30">
+        <v>1</v>
+      </c>
+      <c r="C25" s="30">
+        <v>1</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G25" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H25" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="43" t="s">
+    <row r="26" spans="1:14" s="43" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="43">
-        <v>1</v>
-      </c>
-      <c r="C25" s="43">
-        <v>1</v>
-      </c>
-      <c r="D25" s="43" t="s">
+      <c r="B26" s="43">
+        <v>1</v>
+      </c>
+      <c r="C26" s="43">
+        <v>1</v>
+      </c>
+      <c r="D26" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="43" t="s">
+      <c r="L26" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="M25" s="43" t="s">
+      <c r="M26" s="43" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:14" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+    <row r="27" spans="1:14" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="35">
-        <v>1</v>
-      </c>
-      <c r="C26" s="35">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="B27" s="35">
+        <v>1</v>
+      </c>
+      <c r="C27" s="35">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H26" s="38" t="s">
+      <c r="H27" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="46" t="s">
+      <c r="I27" s="46" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8" t="s">
+    <row r="28" spans="1:14" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="30">
-        <v>1</v>
-      </c>
-      <c r="C27" s="30">
-        <v>1</v>
-      </c>
-      <c r="D27" s="29" t="s">
+      <c r="B28" s="30">
+        <v>1</v>
+      </c>
+      <c r="C28" s="30">
+        <v>1</v>
+      </c>
+      <c r="D28" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G27" s="31" t="s">
+      <c r="G28" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="38" t="s">
+      <c r="H28" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I27" s="47" t="s">
+      <c r="I28" s="47" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:14" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="35">
-        <v>1</v>
-      </c>
-      <c r="C28" s="35">
-        <v>1</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="B29" s="35">
+        <v>1</v>
+      </c>
+      <c r="C29" s="35">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G29" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="45" t="s">
+    <row r="30" spans="1:14" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="45">
-        <v>1</v>
-      </c>
-      <c r="C29" s="45">
-        <v>1</v>
-      </c>
-      <c r="D29" s="45" t="s">
+      <c r="B30" s="45">
+        <v>1</v>
+      </c>
+      <c r="C30" s="45">
+        <v>1</v>
+      </c>
+      <c r="D30" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="K29" s="45" t="s">
+      <c r="K30" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="L29" s="45" t="s">
+      <c r="L30" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="M29" s="45" t="s">
+      <c r="M30" s="45" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="B30" s="42">
-        <v>1</v>
-      </c>
-      <c r="C30" s="42">
-        <v>1</v>
-      </c>
-      <c r="D30" s="48" t="s">
+    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="42">
+        <v>1</v>
+      </c>
+      <c r="C31" s="42">
+        <v>1</v>
+      </c>
+      <c r="D31" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="L30" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="M30" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="N30" s="42"/>
-    </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="42"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
       <c r="E31" s="42"/>
       <c r="F31" s="42"/>
-      <c r="G31" s="42" t="s">
-        <v>52</v>
-      </c>
+      <c r="G31" s="42"/>
       <c r="H31" s="42"/>
       <c r="I31" s="42"/>
       <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
+      <c r="K31" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="L31" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="49" t="s">
+        <v>46</v>
+      </c>
       <c r="N31" s="42"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="50">
+        <v>1</v>
+      </c>
+      <c r="C32" s="50">
+        <v>1</v>
+      </c>
+      <c r="D32" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G32" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="I32" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="L32" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="M32" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" s="50" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1954,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1979,33 +2041,33 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F2" s="42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2019,13 +2081,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" s="42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2039,13 +2101,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F4" s="42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2059,13 +2121,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5" s="42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2079,13 +2141,13 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -2099,13 +2161,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -2119,13 +2181,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2139,13 +2201,13 @@
         <v>1</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -2159,13 +2221,13 @@
         <v>1</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2179,13 +2241,13 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2199,13 +2261,13 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -2219,13 +2281,13 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -2239,173 +2301,213 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>1</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="28">
-        <v>1</v>
-      </c>
-      <c r="C16" s="28">
-        <v>1</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="42" t="s">
+      <c r="B17" s="28">
+        <v>1</v>
+      </c>
+      <c r="C17" s="28">
+        <v>1</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="42">
-        <v>1</v>
-      </c>
-      <c r="C17" s="42">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="42">
+        <v>1</v>
+      </c>
+      <c r="C18" s="42">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="35" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="28">
-        <v>1</v>
-      </c>
-      <c r="C19" s="28">
-        <v>1</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
+      <c r="B20" s="28">
+        <v>1</v>
+      </c>
+      <c r="C20" s="28">
+        <v>1</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="42" t="s">
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="42">
-        <v>1</v>
-      </c>
-      <c r="C21" s="42">
-        <v>1</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>182</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" t="s">
-        <v>59</v>
+      <c r="B22" s="42">
+        <v>1</v>
+      </c>
+      <c r="C22" s="42">
+        <v>1</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="42">
+        <v>1</v>
+      </c>
+      <c r="C23" s="42">
+        <v>1</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="51">
+        <v>1</v>
+      </c>
+      <c r="C24" s="51">
+        <v>1</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="51" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2415,17 +2517,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
-  <dimension ref="A1:BZ29"/>
+  <dimension ref="A1:BZ31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="2" customWidth="1"/>
     <col min="5" max="5" width="6.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.81640625" style="42" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.81640625" style="2" bestFit="1" customWidth="1"/>
@@ -2500,229 +2603,229 @@
         <v>2</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L1" s="42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M1" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q1" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="R1" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE1" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF1" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="O1" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="P1" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q1" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="R1" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="U1" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="V1" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="W1" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="X1" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y1" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z1" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA1" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB1" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AG1" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH1" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI1" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AM1" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO1" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AP1" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ1" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AR1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT1" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="AU1" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="AD1" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE1" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF1" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG1" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH1" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI1" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK1" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM1" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="AN1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AO1" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AS1" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AT1" s="10" t="s">
+      <c r="AV1" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AW1" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AX1" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AY1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AZ1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="BA1" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="BB1" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="BC1" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="BD1" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE1" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF1" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG1" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="BH1" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="BI1" s="42" t="s">
+        <v>117</v>
+      </c>
+      <c r="BJ1" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="BK1" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="BL1" s="42" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM1" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="BN1" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="BO1" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="AU1" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="AV1" s="10" t="s">
+      <c r="BP1" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="AW1" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX1" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY1" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AZ1" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="BA1" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="BB1" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="BC1" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="BD1" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="BE1" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="BF1" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="BG1" s="34" t="s">
-        <v>113</v>
-      </c>
-      <c r="BH1" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="BI1" s="42" t="s">
-        <v>115</v>
-      </c>
-      <c r="BJ1" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="BK1" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="BL1" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="BM1" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="BN1" s="42" t="s">
-        <v>120</v>
-      </c>
-      <c r="BO1" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="BP1" s="42" t="s">
-        <v>100</v>
-      </c>
       <c r="BQ1" s="42" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="BR1" s="42" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="BS1" s="42" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="BT1" s="42" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="BU1" s="42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="BV1" s="42" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="BW1" s="42" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="BX1" s="42" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="BY1" s="42" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="BZ1" s="42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -2754,38 +2857,38 @@
       <c r="T2" s="42"/>
       <c r="U2" s="42"/>
       <c r="AE2" s="42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF2" s="42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AG2" s="42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AH2" s="42"/>
       <c r="AI2" s="42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ2" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK2" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AL2" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AM2" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AN2" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AO2" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AP2" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ2" s="10"/>
       <c r="AR2" s="10"/>
@@ -2796,43 +2899,43 @@
       <c r="AW2" s="10"/>
       <c r="AX2" s="10"/>
       <c r="AY2" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AZ2" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="BA2" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="BB2" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="BC2" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="BD2" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BE2" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BF2" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BG2" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="BH2" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BI2" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="BJ2" s="34" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="BK2" s="34" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="BL2" s="34"/>
       <c r="BM2" s="34"/>
@@ -2861,19 +2964,19 @@
         <v>1</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I3" s="35"/>
       <c r="J3" s="35"/>
@@ -2957,19 +3060,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I4" s="35"/>
       <c r="J4" s="35"/>
@@ -3053,19 +3156,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
@@ -3079,13 +3182,13 @@
       <c r="R5" s="37"/>
       <c r="S5" s="37"/>
       <c r="T5" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U5" s="37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="V5" s="37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="W5" s="37"/>
       <c r="X5" s="37"/>
@@ -3125,10 +3228,10 @@
       <c r="BF5" s="37"/>
       <c r="BG5" s="37"/>
       <c r="BH5" s="37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BI5" s="37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="BJ5" s="37"/>
       <c r="BK5" s="37"/>
@@ -3159,19 +3262,19 @@
         <v>2</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="37"/>
@@ -3225,10 +3328,10 @@
       <c r="BF6" s="37"/>
       <c r="BG6" s="37"/>
       <c r="BH6" s="37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BI6" s="37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="BJ6" s="37"/>
       <c r="BK6" s="37"/>
@@ -3259,19 +3362,19 @@
         <v>3</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I7" s="37"/>
       <c r="J7" s="37"/>
@@ -3285,13 +3388,13 @@
       <c r="R7" s="37"/>
       <c r="S7" s="37"/>
       <c r="T7" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U7" s="37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="V7" s="37" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="W7" s="37"/>
       <c r="X7" s="37"/>
@@ -3331,10 +3434,10 @@
       <c r="BF7" s="37"/>
       <c r="BG7" s="37"/>
       <c r="BH7" s="37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BI7" s="37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="BJ7" s="37"/>
       <c r="BK7" s="37"/>
@@ -3365,19 +3468,19 @@
         <v>1</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G8" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="42"/>
@@ -3443,19 +3546,19 @@
         <v>1</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="42"/>
@@ -3539,38 +3642,38 @@
       <c r="T10" s="42"/>
       <c r="U10" s="42"/>
       <c r="AE10" s="42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AF10" s="42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AG10" s="42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AH10" s="42"/>
       <c r="AI10" s="42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AJ10" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="AK10" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AL10" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AM10" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AN10" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AO10" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AP10" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AQ10" s="10"/>
       <c r="AR10" s="10"/>
@@ -3581,31 +3684,31 @@
       <c r="AW10" s="10"/>
       <c r="AX10" s="10"/>
       <c r="AY10" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="AZ10" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="BA10" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="BB10" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="BC10" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="BD10" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BE10" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BF10" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="BG10" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="BH10" s="42"/>
       <c r="BI10" s="42"/>
@@ -3637,19 +3740,19 @@
         <v>1</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G11" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
@@ -3663,13 +3766,13 @@
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
       <c r="T11" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U11" s="38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="V11" s="38" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="W11" s="38"/>
       <c r="X11" s="38"/>
@@ -3739,19 +3842,19 @@
         <v>2</v>
       </c>
       <c r="D12" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G12" s="38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="H12" s="38" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
@@ -3765,13 +3868,13 @@
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
       <c r="T12" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U12" s="38" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="V12" s="38" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="W12" s="38"/>
       <c r="X12" s="38"/>
@@ -3841,61 +3944,61 @@
         <v>1</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I13" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="O13" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P13" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q13" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="R13" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="S13" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="T13" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="U13" s="36" t="s">
         <v>151</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="V13" s="36" t="s">
         <v>151</v>
-      </c>
-      <c r="K13" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="L13" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="N13" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="O13" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="P13" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q13" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="R13" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="S13" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="T13" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="U13" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="V13" s="36" t="s">
-        <v>149</v>
       </c>
       <c r="W13" s="36"/>
       <c r="X13" s="36"/>
@@ -3965,19 +4068,19 @@
         <v>1</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G14" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
@@ -3991,13 +4094,13 @@
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
       <c r="T14" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U14" s="35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="V14" s="35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
@@ -4067,19 +4170,19 @@
         <v>1</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
@@ -4093,13 +4196,13 @@
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
       <c r="T15" s="35" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U15" s="35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="V15" s="35" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
@@ -4169,19 +4272,19 @@
         <v>1</v>
       </c>
       <c r="D16" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G16" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="41"/>
@@ -4189,17 +4292,19 @@
       <c r="L16" s="42"/>
       <c r="M16" s="42"/>
       <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
+      <c r="O16" s="42" t="s">
+        <v>60</v>
+      </c>
       <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
       <c r="R16" s="42"/>
       <c r="S16" s="42"/>
       <c r="T16" s="42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U16" s="42"/>
       <c r="V16" s="42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AE16" s="42"/>
       <c r="AF16" s="20"/>
@@ -4252,19 +4357,19 @@
         <v>1</v>
       </c>
       <c r="D17" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G17" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
@@ -4278,18 +4383,18 @@
       <c r="R17" s="42"/>
       <c r="S17" s="42"/>
       <c r="T17" s="42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U17" s="42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="V17" s="42" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AE17" s="42"/>
       <c r="AF17" s="42"/>
       <c r="AG17" s="42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH17" s="42"/>
       <c r="AI17" s="42"/>
@@ -4314,32 +4419,32 @@
       <c r="BJ17" s="42"/>
       <c r="BK17" s="42"/>
       <c r="BL17" s="42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BN17" s="42"/>
       <c r="BO17" s="42" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="BP17" s="42" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BQ17" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="BR17" s="42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="BS17" s="42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="BT17" s="42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BU17" s="42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="BV17" s="42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="BW17" s="42"/>
       <c r="BX17" s="42"/>
@@ -4357,10 +4462,10 @@
         <v>2</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
@@ -4390,7 +4495,7 @@
       <c r="AE18" s="42"/>
       <c r="AF18" s="42"/>
       <c r="AG18" s="42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH18" s="42"/>
       <c r="AI18" s="42"/>
@@ -4424,35 +4529,35 @@
       <c r="BK18" s="42"/>
       <c r="BL18" s="42"/>
       <c r="BM18" s="42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BN18" s="42"/>
       <c r="BO18" s="42" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="BP18" s="42" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BQ18" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="BR18" s="42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="BS18" s="42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="BT18" s="42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BU18" s="42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="BV18" s="42"/>
       <c r="BW18" s="42"/>
       <c r="BX18" s="42"/>
       <c r="BY18" s="42" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BZ18" s="42"/>
     </row>
@@ -4496,7 +4601,7 @@
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
       <c r="AG19" s="42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AH19" s="42"/>
       <c r="AI19" s="42"/>
@@ -4531,48 +4636,48 @@
       <c r="BL19" s="42"/>
       <c r="BM19" s="42"/>
       <c r="BN19" s="42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="BO19" s="42" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="BP19" s="42" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="BQ19" s="42" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="BR19" s="42" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="BS19" s="42" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="BT19" s="42" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="BU19" s="42" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="BV19" s="42" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="BW19" s="42" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="BX19" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="BY19" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="BY19" s="42" t="s">
-        <v>161</v>
-      </c>
       <c r="BZ19" s="42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="42" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B20" s="41">
         <v>1</v>
@@ -4581,13 +4686,13 @@
         <v>1</v>
       </c>
       <c r="D20" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20" s="42"/>
       <c r="G20" s="42"/>
       <c r="H20" s="42"/>
       <c r="I20" s="42" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
@@ -4652,22 +4757,24 @@
         <v>1</v>
       </c>
       <c r="D21" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E21" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G21" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
+      <c r="J21" s="38" t="s">
+        <v>60</v>
+      </c>
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38"/>
@@ -4678,13 +4785,13 @@
       <c r="R21" s="38"/>
       <c r="S21" s="38"/>
       <c r="T21" s="38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U21" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="V21" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="W21" s="8"/>
       <c r="X21" s="8"/>
@@ -4743,565 +4850,904 @@
       <c r="BY21" s="38"/>
       <c r="BZ21" s="38"/>
     </row>
-    <row r="22" spans="1:78" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:78" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="B22" s="38">
+        <v>1</v>
+      </c>
+      <c r="C22" s="38">
+        <v>1</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="T22" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="U22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AH22" s="42"/>
+      <c r="AI22" s="42"/>
+      <c r="AJ22" s="19"/>
+    </row>
+    <row r="23" spans="1:78" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="35">
-        <v>1</v>
-      </c>
-      <c r="C22" s="35">
-        <v>1</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="U22" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="V22" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
-      <c r="AJ22" s="35"/>
-      <c r="AK22" s="35"/>
-      <c r="AL22" s="35"/>
-      <c r="AM22" s="35"/>
-      <c r="AN22" s="35"/>
-      <c r="AO22" s="14"/>
-      <c r="AP22" s="35"/>
-      <c r="AQ22" s="35"/>
-      <c r="AR22" s="35"/>
-      <c r="AS22" s="35"/>
-      <c r="AT22" s="35"/>
-      <c r="AU22" s="35"/>
-      <c r="AV22" s="35"/>
-      <c r="AW22" s="35"/>
-      <c r="AX22" s="35"/>
-      <c r="AY22" s="35"/>
-      <c r="AZ22" s="35"/>
-      <c r="BA22" s="35"/>
-      <c r="BB22" s="35"/>
-      <c r="BC22" s="35"/>
-      <c r="BD22" s="35"/>
-      <c r="BE22" s="35"/>
-      <c r="BF22" s="35"/>
-      <c r="BG22" s="35"/>
-      <c r="BH22" s="35"/>
-      <c r="BI22" s="35"/>
-      <c r="BJ22" s="35"/>
-      <c r="BK22" s="35"/>
-      <c r="BL22" s="35"/>
-      <c r="BM22" s="35"/>
-      <c r="BN22" s="35"/>
-      <c r="BO22" s="35"/>
-      <c r="BP22" s="35"/>
-      <c r="BQ22" s="35"/>
-      <c r="BR22" s="35"/>
-      <c r="BS22" s="35"/>
-      <c r="BT22" s="35"/>
-      <c r="BU22" s="35"/>
-      <c r="BV22" s="35"/>
-      <c r="BW22" s="35"/>
-      <c r="BX22" s="35"/>
-      <c r="BY22" s="35"/>
-      <c r="BZ22" s="35"/>
-    </row>
-    <row r="23" spans="1:78" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8" t="s">
+      <c r="B23" s="35">
+        <v>1</v>
+      </c>
+      <c r="C23" s="35">
+        <v>1</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="U23" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="V23" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+      <c r="Z23" s="35"/>
+      <c r="AA23" s="35"/>
+      <c r="AB23" s="35"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="35"/>
+      <c r="AE23" s="35"/>
+      <c r="AF23" s="35"/>
+      <c r="AG23" s="35"/>
+      <c r="AH23" s="35"/>
+      <c r="AI23" s="35"/>
+      <c r="AJ23" s="35"/>
+      <c r="AK23" s="35"/>
+      <c r="AL23" s="35"/>
+      <c r="AM23" s="35"/>
+      <c r="AN23" s="35"/>
+      <c r="AO23" s="14"/>
+      <c r="AP23" s="35"/>
+      <c r="AQ23" s="35"/>
+      <c r="AR23" s="35"/>
+      <c r="AS23" s="35"/>
+      <c r="AT23" s="35"/>
+      <c r="AU23" s="35"/>
+      <c r="AV23" s="35"/>
+      <c r="AW23" s="35"/>
+      <c r="AX23" s="35"/>
+      <c r="AY23" s="35"/>
+      <c r="AZ23" s="35"/>
+      <c r="BA23" s="35"/>
+      <c r="BB23" s="35"/>
+      <c r="BC23" s="35"/>
+      <c r="BD23" s="35"/>
+      <c r="BE23" s="35"/>
+      <c r="BF23" s="35"/>
+      <c r="BG23" s="35"/>
+      <c r="BH23" s="35"/>
+      <c r="BI23" s="35"/>
+      <c r="BJ23" s="35"/>
+      <c r="BK23" s="35"/>
+      <c r="BL23" s="35"/>
+      <c r="BM23" s="35"/>
+      <c r="BN23" s="35"/>
+      <c r="BO23" s="35"/>
+      <c r="BP23" s="35"/>
+      <c r="BQ23" s="35"/>
+      <c r="BR23" s="35"/>
+      <c r="BS23" s="35"/>
+      <c r="BT23" s="35"/>
+      <c r="BU23" s="35"/>
+      <c r="BV23" s="35"/>
+      <c r="BW23" s="35"/>
+      <c r="BX23" s="35"/>
+      <c r="BY23" s="35"/>
+      <c r="BZ23" s="35"/>
+    </row>
+    <row r="24" spans="1:78" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="38">
-        <v>1</v>
-      </c>
-      <c r="C23" s="38">
-        <v>1</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="U23" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="V23" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="38"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="38"/>
-      <c r="AI23" s="38"/>
-      <c r="AJ23" s="38"/>
-      <c r="AK23" s="38"/>
-      <c r="AL23" s="38"/>
-      <c r="AM23" s="38"/>
-      <c r="AN23" s="38"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="38"/>
-      <c r="AR23" s="38"/>
-      <c r="AS23" s="38"/>
-      <c r="AT23" s="38"/>
-      <c r="AU23" s="38"/>
-      <c r="AV23" s="38"/>
-      <c r="AW23" s="38"/>
-      <c r="AX23" s="38"/>
-      <c r="AY23" s="38"/>
-      <c r="AZ23" s="38"/>
-      <c r="BA23" s="38"/>
-      <c r="BB23" s="38"/>
-      <c r="BC23" s="38"/>
-      <c r="BD23" s="38"/>
-      <c r="BE23" s="38"/>
-      <c r="BF23" s="38"/>
-      <c r="BG23" s="38"/>
-      <c r="BH23" s="38"/>
-      <c r="BI23" s="38"/>
-      <c r="BJ23" s="38"/>
-      <c r="BK23" s="38"/>
-      <c r="BL23" s="38"/>
-      <c r="BM23" s="38"/>
-      <c r="BN23" s="38"/>
-      <c r="BO23" s="38"/>
-      <c r="BP23" s="38"/>
-      <c r="BQ23" s="38"/>
-      <c r="BR23" s="38"/>
-      <c r="BS23" s="38"/>
-      <c r="BT23" s="38"/>
-      <c r="BU23" s="38"/>
-      <c r="BV23" s="38"/>
-      <c r="BW23" s="38"/>
-      <c r="BX23" s="38"/>
-      <c r="BY23" s="38"/>
-      <c r="BZ23" s="38"/>
-    </row>
-    <row r="24" spans="1:78" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="44" t="s">
+      <c r="B24" s="38">
+        <v>1</v>
+      </c>
+      <c r="C24" s="38">
+        <v>1</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H24" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="38"/>
+      <c r="R24" s="38"/>
+      <c r="S24" s="38"/>
+      <c r="T24" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="U24" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="V24" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
+      <c r="AC24" s="38"/>
+      <c r="AD24" s="38"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="38"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="38"/>
+      <c r="AJ24" s="38"/>
+      <c r="AK24" s="38"/>
+      <c r="AL24" s="38"/>
+      <c r="AM24" s="38"/>
+      <c r="AN24" s="38"/>
+      <c r="AO24" s="32"/>
+      <c r="AP24" s="38"/>
+      <c r="AQ24" s="38"/>
+      <c r="AR24" s="38"/>
+      <c r="AS24" s="38"/>
+      <c r="AT24" s="38"/>
+      <c r="AU24" s="38"/>
+      <c r="AV24" s="38"/>
+      <c r="AW24" s="38"/>
+      <c r="AX24" s="38"/>
+      <c r="AY24" s="38"/>
+      <c r="AZ24" s="38"/>
+      <c r="BA24" s="38"/>
+      <c r="BB24" s="38"/>
+      <c r="BC24" s="38"/>
+      <c r="BD24" s="38"/>
+      <c r="BE24" s="38"/>
+      <c r="BF24" s="38"/>
+      <c r="BG24" s="38"/>
+      <c r="BH24" s="38"/>
+      <c r="BI24" s="38"/>
+      <c r="BJ24" s="38"/>
+      <c r="BK24" s="38"/>
+      <c r="BL24" s="38"/>
+      <c r="BM24" s="38"/>
+      <c r="BN24" s="38"/>
+      <c r="BO24" s="38"/>
+      <c r="BP24" s="38"/>
+      <c r="BQ24" s="38"/>
+      <c r="BR24" s="38"/>
+      <c r="BS24" s="38"/>
+      <c r="BT24" s="38"/>
+      <c r="BU24" s="38"/>
+      <c r="BV24" s="38"/>
+      <c r="BW24" s="38"/>
+      <c r="BX24" s="38"/>
+      <c r="BY24" s="38"/>
+      <c r="BZ24" s="38"/>
+    </row>
+    <row r="25" spans="1:78" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="44">
-        <v>1</v>
-      </c>
-      <c r="C24" s="44">
-        <v>1</v>
-      </c>
-      <c r="D24" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="F24" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" s="44" t="s">
+      <c r="B25" s="44">
+        <v>1</v>
+      </c>
+      <c r="C25" s="44">
+        <v>1</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="I25" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="K25" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="L25" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="M25" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="N25" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="O25" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="P25" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q25" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="R25" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="S25" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="T25" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="W25" s="44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:78" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="35">
+        <v>1</v>
+      </c>
+      <c r="C26" s="35">
+        <v>1</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="T26" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="U26" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="I24" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="J24" s="44" t="s">
+      <c r="V26" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO26" s="14"/>
+    </row>
+    <row r="27" spans="1:78" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="38">
+        <v>1</v>
+      </c>
+      <c r="C27" s="38">
+        <v>1</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="T27" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="U27" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="K24" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="L24" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="M24" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="N24" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="O24" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="P24" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q24" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="R24" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="S24" s="44" t="s">
-        <v>151</v>
-      </c>
-      <c r="T24" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="W24" s="44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:78" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="35">
-        <v>1</v>
-      </c>
-      <c r="C25" s="35">
-        <v>1</v>
-      </c>
-      <c r="D25" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="T25" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="U25" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="V25" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO25" s="14"/>
-    </row>
-    <row r="26" spans="1:78" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="38">
-        <v>1</v>
-      </c>
-      <c r="C26" s="38">
-        <v>1</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="T26" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="U26" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="V26" s="42" t="s">
-        <v>152</v>
-      </c>
-      <c r="AO26" s="32"/>
-    </row>
-    <row r="27" spans="1:78" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="42" t="s">
+      <c r="V27" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="AO27" s="32"/>
+    </row>
+    <row r="28" spans="1:78" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="41">
-        <v>1</v>
-      </c>
-      <c r="C27" s="41">
-        <v>1</v>
-      </c>
-      <c r="D27" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="J27" s="41"/>
-      <c r="AF27" s="20"/>
-    </row>
-    <row r="28" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="42" t="s">
+      <c r="B28" s="41">
+        <v>1</v>
+      </c>
+      <c r="C28" s="41">
+        <v>1</v>
+      </c>
+      <c r="D28" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="41"/>
+      <c r="AF28" s="20"/>
+    </row>
+    <row r="29" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="42">
-        <v>1</v>
-      </c>
-      <c r="C28" s="42">
-        <v>1</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="I28" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="J28" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="K28" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="L28" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="M28" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="N28" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="O28" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="P28" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q28" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="R28" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="S28" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="T28" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="U28" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="V28" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="W28" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="X28" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y28" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z28" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AB28" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="42"/>
-      <c r="AI28" s="42"/>
-      <c r="AJ28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AW28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AX28" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="AY28" s="42"/>
-      <c r="AZ28" s="42"/>
-      <c r="BA28" s="42"/>
-      <c r="BB28" s="42"/>
-      <c r="BC28" s="42"/>
-      <c r="BD28" s="42"/>
-      <c r="BE28" s="42"/>
-      <c r="BF28" s="42"/>
-      <c r="BG28" s="42"/>
-      <c r="BH28" s="42"/>
-      <c r="BI28" s="42"/>
-      <c r="BJ28" s="42"/>
-      <c r="BK28" s="42"/>
-      <c r="BL28" s="42"/>
-      <c r="BN28" s="42"/>
-      <c r="BO28" s="42"/>
-      <c r="BP28" s="42"/>
-      <c r="BQ28" s="42"/>
-      <c r="BR28" s="42"/>
-      <c r="BS28" s="42"/>
-      <c r="BT28" s="42"/>
-      <c r="BU28" s="42"/>
-      <c r="BV28" s="42"/>
-      <c r="BW28" s="42"/>
-      <c r="BX28" s="42"/>
-      <c r="BY28" s="42"/>
-      <c r="BZ28" s="42"/>
-    </row>
-    <row r="29" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>58</v>
+      <c r="B29" s="42">
+        <v>1</v>
+      </c>
+      <c r="C29" s="42">
+        <v>1</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="H29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="I29" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="K29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="L29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="M29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="N29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="O29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="P29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="R29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="S29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="T29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="U29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="V29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="W29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="X29" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y29" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z29" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB29" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE29" s="42"/>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="42"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AR29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AS29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX29" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY29" s="42"/>
+      <c r="AZ29" s="42"/>
+      <c r="BA29" s="42"/>
+      <c r="BB29" s="42"/>
+      <c r="BC29" s="42"/>
+      <c r="BD29" s="42"/>
+      <c r="BE29" s="42"/>
+      <c r="BF29" s="42"/>
+      <c r="BG29" s="42"/>
+      <c r="BH29" s="42"/>
+      <c r="BI29" s="42"/>
+      <c r="BJ29" s="42"/>
+      <c r="BK29" s="42"/>
+      <c r="BL29" s="42"/>
+      <c r="BN29" s="42"/>
+      <c r="BO29" s="42"/>
+      <c r="BP29" s="42"/>
+      <c r="BQ29" s="42"/>
+      <c r="BR29" s="42"/>
+      <c r="BS29" s="42"/>
+      <c r="BT29" s="42"/>
+      <c r="BU29" s="42"/>
+      <c r="BV29" s="42"/>
+      <c r="BW29" s="42"/>
+      <c r="BX29" s="42"/>
+      <c r="BY29" s="42"/>
+      <c r="BZ29" s="42"/>
+    </row>
+    <row r="30" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="42">
+        <v>1</v>
+      </c>
+      <c r="C30" s="42">
+        <v>1</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="J30" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
+      <c r="Q30" s="42"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="U30" s="42"/>
+      <c r="AE30" s="42"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="42"/>
+      <c r="AH30" s="42"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="42"/>
+      <c r="AK30" s="42"/>
+      <c r="AL30" s="42"/>
+      <c r="AM30" s="42"/>
+      <c r="AN30" s="42"/>
+      <c r="AO30" s="42"/>
+      <c r="AP30" s="42"/>
+      <c r="AY30" s="42"/>
+      <c r="AZ30" s="42"/>
+      <c r="BA30" s="42"/>
+      <c r="BB30" s="42"/>
+      <c r="BC30" s="42"/>
+      <c r="BD30" s="42"/>
+      <c r="BE30" s="42"/>
+      <c r="BF30" s="42"/>
+      <c r="BG30" s="42"/>
+      <c r="BH30" s="42"/>
+      <c r="BI30" s="42"/>
+      <c r="BJ30" s="42"/>
+      <c r="BK30" s="42"/>
+      <c r="BL30" s="42"/>
+      <c r="BN30" s="42"/>
+      <c r="BO30" s="42"/>
+      <c r="BP30" s="42"/>
+      <c r="BQ30" s="42"/>
+      <c r="BR30" s="42"/>
+      <c r="BS30" s="42"/>
+      <c r="BT30" s="42"/>
+      <c r="BU30" s="42"/>
+      <c r="BV30" s="42"/>
+      <c r="BW30" s="42"/>
+      <c r="BX30" s="42"/>
+      <c r="BY30" s="42"/>
+      <c r="BZ30" s="42"/>
+    </row>
+    <row r="31" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="50">
+        <v>1</v>
+      </c>
+      <c r="C31" s="50">
+        <v>1</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="I31" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="K31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="L31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="M31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="N31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="O31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="P31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="R31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="S31" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="T31" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="U31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="V31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="W31" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="X31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AB31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AR31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AS31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AT31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AW31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AX31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="AZ31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BA31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BB31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BC31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BH31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BI31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BJ31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BK31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BL31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BM31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BN31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BO31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BP31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BQ31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BR31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BS31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BV31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BW31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BX31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BY31" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="BZ31" s="50" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5346,46 +5792,46 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H1" s="42" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I1" s="42" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J1" s="42" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K1" s="42" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L1" s="42" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M1" s="42" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N1" s="42" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O1" s="42" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P1" s="42" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q1" s="9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5400,36 +5846,36 @@
       </c>
       <c r="D2" s="41"/>
       <c r="E2" s="41" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I2" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J2" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K2" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L2" s="41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M2" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N2" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O2" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P2" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q2" s="42"/>
     </row>
@@ -5444,43 +5890,43 @@
         <v>1</v>
       </c>
       <c r="D3" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="N3" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="37" t="s">
+      <c r="O3" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="K3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>56</v>
-      </c>
       <c r="P3" s="21" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q3" s="37"/>
     </row>
@@ -5495,43 +5941,43 @@
         <v>1</v>
       </c>
       <c r="D4" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="H4" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="N4" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="G4" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="H4" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="41" t="s">
-        <v>56</v>
-      </c>
       <c r="O4" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P4" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="42"/>
     </row>
@@ -5546,43 +5992,43 @@
         <v>1</v>
       </c>
       <c r="D5" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="42" t="s">
+      <c r="N5" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="I5" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="41" t="s">
-        <v>56</v>
-      </c>
       <c r="O5" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P5" s="41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="42"/>
     </row>
@@ -5597,46 +6043,46 @@
         <v>1</v>
       </c>
       <c r="D6" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="N6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="H6" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I6" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="O6" s="22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P6" s="22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q6" s="22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5650,46 +6096,46 @@
         <v>1</v>
       </c>
       <c r="D7" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="N7" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="L7" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="M7" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="N7" s="22" t="s">
-        <v>56</v>
-      </c>
       <c r="O7" s="22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q7" s="22" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5703,46 +6149,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="N8" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>56</v>
-      </c>
       <c r="O8" s="24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5756,46 +6202,46 @@
         <v>1</v>
       </c>
       <c r="D9" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="N9" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="O9" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5809,46 +6255,46 @@
         <v>1</v>
       </c>
       <c r="D10" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="35" t="s">
+      <c r="N10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="O10" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5862,46 +6308,46 @@
         <v>1</v>
       </c>
       <c r="D11" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="35" t="s">
+      <c r="N11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="O11" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5915,46 +6361,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="N12" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="O12" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q12" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -5968,46 +6414,46 @@
         <v>1</v>
       </c>
       <c r="D13" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="N13" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="O13" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -6021,46 +6467,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="N14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N14" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="O14" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -6070,16 +6516,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -6296,6 +6732,16 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6306,16 +6752,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6334,6 +6770,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata19feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata26feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC2C390-D143-4BA3-B52A-4B2F107D3F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0604D1-9300-48FF-899B-611CB52139E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="209">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -83,6 +83,15 @@
     <t>CLERICAL_WORKER</t>
   </si>
   <si>
+    <t>CDSS</t>
+  </si>
+  <si>
+    <t>CM_SUPERVISORFRESNO</t>
+  </si>
+  <si>
+    <t>CMWorkerFresno</t>
+  </si>
+  <si>
     <t>testT4116</t>
   </si>
   <si>
@@ -209,6 +218,12 @@
     <t>testT4275</t>
   </si>
   <si>
+    <t>testT4275_1</t>
+  </si>
+  <si>
+    <t>testT4275_2</t>
+  </si>
+  <si>
     <t>testT4763</t>
   </si>
   <si>
@@ -221,6 +236,12 @@
     <t>testT4256</t>
   </si>
   <si>
+    <t>CMSUPERVISORFRESNO</t>
+  </si>
+  <si>
+    <t>CMWORKERFRESNO</t>
+  </si>
+  <si>
     <t>testT4274</t>
   </si>
   <si>
@@ -236,6 +257,15 @@
     <t>CaseChildLocationSetup</t>
   </si>
   <si>
+    <t>testT4245</t>
+  </si>
+  <si>
+    <t>testT4249</t>
+  </si>
+  <si>
+    <t>testT4149</t>
+  </si>
+  <si>
     <t>PROFILE_ICON</t>
   </si>
   <si>
@@ -636,9 +666,6 @@
   </si>
   <si>
     <t>Fresno</t>
-  </si>
-  <si>
-    <t>testT4245</t>
   </si>
 </sst>
 </file>
@@ -713,12 +740,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -761,7 +800,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -775,6 +814,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1089,11 +1134,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
-  <dimension ref="A1:N43"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P43" sqref="P43"/>
+    <sheetView topLeftCell="H1" zoomScale="81" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1115,7 +1160,7 @@
     <col min="15" max="16384" width="8.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1158,10 +1203,19 @@
       <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="O1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -1170,15 +1224,15 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -1187,29 +1241,29 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
@@ -1218,20 +1272,20 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="B6" s="2">
         <v>2</v>
@@ -1240,57 +1294,57 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -1299,15 +1353,15 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B10" s="2">
         <v>2</v>
@@ -1316,15 +1370,15 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2">
         <v>1</v>
@@ -1333,17 +1387,17 @@
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2">
         <v>1</v>
@@ -1352,17 +1406,17 @@
         <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -1371,12 +1425,12 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2">
         <v>2</v>
@@ -1385,12 +1439,12 @@
         <v>1</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -1399,12 +1453,12 @@
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -1413,12 +1467,12 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
@@ -1427,21 +1481,21 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -1450,18 +1504,18 @@
         <v>1</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -1470,24 +1524,24 @@
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
@@ -1496,15 +1550,15 @@
         <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
@@ -1513,514 +1567,560 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
+      <c r="C32" s="17">
+        <v>1</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M32" s="18"/>
+      <c r="N32" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L22" s="2" t="s">
+      <c r="O32" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="17">
+        <v>1</v>
+      </c>
+      <c r="C33" s="17">
+        <v>1</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="18"/>
+      <c r="N33" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="34" spans="1:17" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="17">
+        <v>1</v>
+      </c>
+      <c r="C34" s="17">
+        <v>1</v>
+      </c>
+      <c r="D34" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="E34" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="4">
-        <v>1</v>
-      </c>
-      <c r="C25" s="4">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L25" s="4" t="s">
+      <c r="M34" s="18"/>
+      <c r="N34" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I27" s="6" t="s">
+    </row>
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="1">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="3">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3">
         <v>1</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="P38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="1">
         <v>2</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M38" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-      <c r="C39" s="3">
-        <v>1</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="1">
-        <v>1</v>
-      </c>
       <c r="C40" s="1">
         <v>1</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B41" s="3">
         <v>1</v>
@@ -2028,13 +2128,20 @@
       <c r="C41" s="3">
         <v>1</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B42" s="1">
         <v>1</v>
@@ -2042,39 +2149,13 @@
       <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K42" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>199</v>
+        <v>70</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -2083,17 +2164,112 @@
         <v>1</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B45" s="3">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="15">
+        <v>1</v>
+      </c>
+      <c r="C47" s="15">
+        <v>1</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2103,10 +2279,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9F9DA7-E1DF-4693-BE47-8AD0BDAB98C4}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2130,38 +2306,38 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -2170,18 +2346,18 @@
         <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
@@ -2190,18 +2366,18 @@
         <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -2210,18 +2386,18 @@
         <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
@@ -2230,18 +2406,18 @@
         <v>1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="4">
         <v>2</v>
@@ -2250,18 +2426,18 @@
         <v>1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -2270,18 +2446,18 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -2290,18 +2466,18 @@
         <v>1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>
@@ -2310,18 +2486,18 @@
         <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4">
         <v>1</v>
@@ -2330,18 +2506,18 @@
         <v>1</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -2350,18 +2526,18 @@
         <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -2370,18 +2546,18 @@
         <v>1</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2">
         <v>1</v>
@@ -2390,18 +2566,18 @@
         <v>1</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2">
         <v>1</v>
@@ -2410,18 +2586,18 @@
         <v>1</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B16" s="4">
         <v>1</v>
@@ -2430,18 +2606,18 @@
         <v>1</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
@@ -2450,18 +2626,18 @@
         <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
@@ -2470,18 +2646,18 @@
         <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B19" s="4">
         <v>1</v>
@@ -2490,18 +2666,18 @@
         <v>1</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B20" s="4">
         <v>1</v>
@@ -2510,18 +2686,18 @@
         <v>1</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B21" s="4">
         <v>1</v>
@@ -2530,18 +2706,18 @@
         <v>1</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -2550,18 +2726,18 @@
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -2570,18 +2746,18 @@
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -2590,18 +2766,18 @@
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2">
         <v>1</v>
@@ -2610,58 +2786,58 @@
         <v>1</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>71</v>
+      <c r="A26" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="A27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B28" s="3">
         <v>1</v>
@@ -2669,79 +2845,79 @@
       <c r="C28" s="3">
         <v>1</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>71</v>
+      <c r="D28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>71</v>
+      <c r="A29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>71</v>
+      <c r="A30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
@@ -2750,38 +2926,38 @@
         <v>1</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>71</v>
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
@@ -2790,33 +2966,113 @@
         <v>1</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="B35" s="3">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>71</v>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2826,11 +3082,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
-  <dimension ref="A1:CB43"/>
+  <dimension ref="A1:CB49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CJ43" sqref="CJ43"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2914,240 +3170,240 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="U1" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="V1" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>80</v>
-      </c>
       <c r="AI1" s="8" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AL1" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="AM1" s="10" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="AN1" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO1" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW1" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AO1" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP1" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AQ1" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AR1" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="AS1" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AT1" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AU1" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="AV1" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AW1" s="9" t="s">
-        <v>98</v>
-      </c>
       <c r="AX1" s="9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="AY1" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="AZ1" s="9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="BA1" s="9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="BB1" s="10" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="BC1" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="BD1" s="11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="BE1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="BH1" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BI1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="BJ1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="BL1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="BM1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="BN1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="BP1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="BQ1" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="BG1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI1" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="BL1" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="BM1" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="BN1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="BO1" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="BP1" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="BQ1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="BS1" s="3" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="BT1" s="3" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="BU1" s="3" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="BV1" s="3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="BW1" s="3" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="BX1" s="3" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="BY1" s="3" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="BZ1" s="3" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="CA1" s="3" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="CB1" s="3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -3160,37 +3416,37 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="AG2" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AH2" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AI2" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AK2" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AP2" s="9" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AR2" s="9" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AS2" s="9"/>
       <c r="AT2" s="9"/>
@@ -3201,43 +3457,43 @@
       <c r="AY2" s="9"/>
       <c r="AZ2" s="9"/>
       <c r="BA2" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="BB2" s="9" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="BC2" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="BD2" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BE2" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF2" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="BD2" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="BE2" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="BF2" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="BG2" s="9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="BH2" s="9" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="BI2" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="BJ2" s="9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="BK2" s="9" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="BL2" s="8" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="BM2" s="8" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="BN2" s="8"/>
       <c r="BO2" s="8"/>
@@ -3245,7 +3501,7 @@
     </row>
     <row r="3" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -3254,25 +3510,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BA3" s="9"/>
     </row>
     <row r="4" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -3281,26 +3537,26 @@
         <v>2</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AL4" s="9"/>
       <c r="BA4" s="10"/>
     </row>
     <row r="5" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -3309,41 +3565,41 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="AL5" s="10"/>
       <c r="BA5" s="9"/>
       <c r="BJ5" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="BK5" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -3352,32 +3608,32 @@
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="AL6" s="10"/>
       <c r="BA6" s="9"/>
       <c r="BJ6" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="BK6" s="3" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -3386,41 +3642,41 @@
         <v>3</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="AL7" s="10"/>
       <c r="BA7" s="9"/>
       <c r="BJ7" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="BK7" s="3" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B8" s="2">
         <v>1</v>
@@ -3429,26 +3685,26 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AL8" s="9"/>
       <c r="BA8" s="11"/>
     </row>
     <row r="9" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2">
         <v>2</v>
@@ -3457,26 +3713,26 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AL9" s="9"/>
       <c r="BA9" s="11"/>
     </row>
     <row r="10" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
         <v>1</v>
@@ -3489,37 +3745,37 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="AG10" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AH10" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AI10" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AK10" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="AL10" s="9" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="AM10" s="9" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="AN10" s="9" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="AO10" s="9" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AP10" s="9" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="AQ10" s="9" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="AR10" s="9" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
@@ -3530,36 +3786,36 @@
       <c r="AY10" s="9"/>
       <c r="AZ10" s="9"/>
       <c r="BA10" s="9" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="BB10" s="9" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="BC10" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="BD10" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="BE10" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="BF10" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="BD10" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="BE10" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="BF10" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="BG10" s="9" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="BH10" s="9" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="BI10" s="9" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -3568,37 +3824,37 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="V11" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AL11" s="11"/>
     </row>
     <row r="12" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -3607,34 +3863,34 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="V12" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AL12" s="11"/>
     </row>
     <row r="13" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
@@ -3643,68 +3899,68 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="V13" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="AL13" s="11"/>
       <c r="BA13" s="9"/>
     </row>
     <row r="14" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -3713,34 +3969,34 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="V14" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="AQ14" s="9"/>
     </row>
     <row r="15" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -3749,34 +4005,34 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="AQ15" s="9"/>
     </row>
     <row r="16" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2">
         <v>1</v>
@@ -3785,35 +4041,35 @@
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J16" s="2"/>
       <c r="O16" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="V16" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AH16" s="12"/>
     </row>
     <row r="17" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
@@ -3822,63 +4078,63 @@
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U17" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="V17" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AI17" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BN17" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="BQ17" s="3" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="BR17" s="3" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="BS17" s="3" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="BT17" s="3" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="BU17" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="BV17" s="3" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="BW17" s="3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="BX17" s="3" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2">
         <v>1</v>
@@ -3887,48 +4143,48 @@
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="AI18" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BO18" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="BQ18" s="3" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="BR18" s="3" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="BS18" s="3" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="BT18" s="3" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="BU18" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="BV18" s="3" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="BW18" s="3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="CA18" s="3" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
@@ -3942,51 +4198,51 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="AI19" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BP19" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="BQ19" s="3" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="BR19" s="3" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="BS19" s="3" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="BT19" s="3" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="BU19" s="3" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="BV19" s="3" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="BW19" s="3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="BX19" s="3" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="BY19" s="3" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="BZ19" s="3" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="CA19" s="3" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="CB19" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2">
         <v>1</v>
@@ -3995,15 +4251,15 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B21" s="3">
         <v>1</v>
@@ -4012,31 +4268,31 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T21" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
@@ -4052,7 +4308,7 @@
     </row>
     <row r="22" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3">
         <v>1</v>
@@ -4061,31 +4317,31 @@
         <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
@@ -4101,7 +4357,7 @@
     </row>
     <row r="23" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B23" s="3">
         <v>1</v>
@@ -4110,34 +4366,34 @@
         <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="AQ23" s="9"/>
     </row>
     <row r="24" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B24" s="3">
         <v>1</v>
@@ -4146,34 +4402,34 @@
         <v>1</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T24" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="AQ24" s="9"/>
     </row>
     <row r="25" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -4182,63 +4438,63 @@
         <v>1</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="T25" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B26" s="3">
         <v>1</v>
@@ -4247,34 +4503,34 @@
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T26" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="V26" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AQ26" s="9"/>
     </row>
     <row r="27" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B27" s="3">
         <v>1</v>
@@ -4283,34 +4539,34 @@
         <v>1</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="AQ27" s="9"/>
     </row>
     <row r="28" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2">
         <v>1</v>
@@ -4319,26 +4575,26 @@
         <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J28" s="2"/>
       <c r="AH28" s="12"/>
     </row>
     <row r="29" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -4347,141 +4603,141 @@
         <v>1</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="W29" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="X29" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AC29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AD29" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AE29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AF29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AL29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AM29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AN29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AO29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AP29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AQ29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AR29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AS29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AT29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AU29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AV29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AW29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AX29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AY29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AZ29" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B30" s="3">
         <v>1</v>
@@ -4490,24 +4746,24 @@
         <v>1</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T30" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
@@ -4516,236 +4772,236 @@
         <v>1</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="V31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="X31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AC31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AH31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AI31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AJ31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AK31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AL31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AM31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AN31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AO31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AP31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AQ31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AR31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AS31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AU31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AV31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AW31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AX31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AY31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AZ31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BA31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BB31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BD31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BE31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BF31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BG31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BH31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BI31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BJ31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BK31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BM31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BN31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BO31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BP31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BQ31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BR31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BS31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BT31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BU31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BV31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BW31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BX31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BY31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="BZ31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="CA31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="CB31" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B32" s="3">
         <v>1</v>
@@ -4754,34 +5010,34 @@
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
@@ -4790,165 +5046,81 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
     </row>
-    <row r="33" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V33" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
+    <row r="33" spans="1:80" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="U34" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="V34" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="W34" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="35" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T35" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="B33" s="17">
+        <v>1</v>
+      </c>
+      <c r="C33" s="17">
+        <v>1</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M33" s="18"/>
+      <c r="N33" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:80" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="17">
+        <v>1</v>
+      </c>
+      <c r="C34" s="17">
+        <v>1</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M34" s="18"/>
+    </row>
+    <row r="35" spans="1:80" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="17">
+        <v>1</v>
+      </c>
+      <c r="C35" s="17">
+        <v>1</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="M35" s="18"/>
     </row>
     <row r="36" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B36" s="3">
         <v>1</v>
@@ -4956,272 +5128,155 @@
       <c r="C36" s="3">
         <v>1</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T36" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="W36" s="3" t="s">
-        <v>166</v>
+      <c r="F36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V36" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
-      <c r="AO37" s="1"/>
-      <c r="AP37" s="1"/>
-      <c r="AQ37" s="1"/>
-      <c r="AR37" s="1"/>
-      <c r="AS37" s="1"/>
-      <c r="AT37" s="1"/>
-      <c r="AU37" s="1"/>
-      <c r="AV37" s="1"/>
-      <c r="AW37" s="1"/>
-      <c r="AX37" s="1"/>
-      <c r="AY37" s="1"/>
-      <c r="AZ37" s="1"/>
-      <c r="BA37" s="1"/>
-      <c r="BB37" s="1"/>
-      <c r="BC37" s="1"/>
-      <c r="BD37" s="1"/>
-      <c r="BE37" s="1"/>
-      <c r="BF37" s="1"/>
-      <c r="BG37" s="1"/>
-      <c r="BH37" s="1"/>
-      <c r="BI37" s="1"/>
-      <c r="BJ37" s="1"/>
-      <c r="BK37" s="1"/>
-      <c r="BL37" s="1"/>
-      <c r="BM37" s="1"/>
-      <c r="BN37" s="1"/>
-      <c r="BO37" s="1"/>
-      <c r="BP37" s="1"/>
-      <c r="BQ37" s="1"/>
-      <c r="BR37" s="1"/>
-      <c r="BS37" s="1"/>
-      <c r="BT37" s="1"/>
-      <c r="BU37" s="1"/>
-      <c r="BV37" s="1"/>
-      <c r="BW37" s="1"/>
-      <c r="BX37" s="1"/>
-      <c r="BY37" s="1"/>
-      <c r="BZ37" s="1"/>
-      <c r="CA37" s="1"/>
-      <c r="CB37" s="1"/>
+      <c r="A37" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="V37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="38" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
-      <c r="AQ38" s="1"/>
-      <c r="AR38" s="1"/>
-      <c r="AS38" s="1"/>
-      <c r="AT38" s="1"/>
-      <c r="AU38" s="1"/>
-      <c r="AV38" s="1"/>
-      <c r="AW38" s="1"/>
-      <c r="AX38" s="1"/>
-      <c r="AY38" s="1"/>
-      <c r="AZ38" s="1"/>
-      <c r="BA38" s="1"/>
-      <c r="BB38" s="1"/>
-      <c r="BC38" s="1"/>
-      <c r="BD38" s="1"/>
-      <c r="BE38" s="1"/>
-      <c r="BF38" s="1"/>
-      <c r="BG38" s="1"/>
-      <c r="BH38" s="1"/>
-      <c r="BI38" s="1"/>
-      <c r="BJ38" s="1"/>
-      <c r="BK38" s="1"/>
-      <c r="BL38" s="1"/>
-      <c r="BM38" s="1"/>
-      <c r="BN38" s="1"/>
-      <c r="BO38" s="1"/>
-      <c r="BP38" s="1"/>
-      <c r="BQ38" s="1"/>
-      <c r="BR38" s="1"/>
-      <c r="BS38" s="1"/>
-      <c r="BT38" s="1"/>
-      <c r="BU38" s="1"/>
-      <c r="BV38" s="1"/>
-      <c r="BW38" s="1"/>
-      <c r="BX38" s="1"/>
-      <c r="BY38" s="1"/>
-      <c r="BZ38" s="1"/>
-      <c r="CA38" s="1"/>
-      <c r="CB38" s="1"/>
+      <c r="A38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38" s="3">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="39" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B39" s="3">
         <v>1</v>
@@ -5229,209 +5284,292 @@
       <c r="C39" s="3">
         <v>1</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>182</v>
+      <c r="D39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T39" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1"/>
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="I40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>181</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="1"/>
+      <c r="BM40" s="1"/>
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="1"/>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
+      <c r="BT40" s="1"/>
+      <c r="BU40" s="1"/>
+      <c r="BV40" s="1"/>
+      <c r="BW40" s="1"/>
+      <c r="BX40" s="1"/>
+      <c r="BY40" s="1"/>
+      <c r="BZ40" s="1"/>
+      <c r="CA40" s="1"/>
+      <c r="CB40" s="1"/>
     </row>
     <row r="41" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-      <c r="C41" s="3">
-        <v>1</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA41" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AL41" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AM41" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN41" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO41" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP41" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AQ41" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR41" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="A41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="1"/>
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="1"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="1"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="1"/>
+      <c r="BT41" s="1"/>
+      <c r="BU41" s="1"/>
+      <c r="BV41" s="1"/>
+      <c r="BW41" s="1"/>
+      <c r="BX41" s="1"/>
+      <c r="BY41" s="1"/>
+      <c r="BZ41" s="1"/>
+      <c r="CA41" s="1"/>
+      <c r="CB41" s="1"/>
     </row>
     <row r="42" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>70</v>
+      <c r="A42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
-      <c r="AD42" s="1"/>
-      <c r="AE42" s="1"/>
-      <c r="AF42" s="1"/>
-      <c r="AG42" s="1"/>
-      <c r="AH42" s="1"/>
-      <c r="AI42" s="1"/>
-      <c r="AJ42" s="1"/>
-      <c r="AK42" s="1"/>
-      <c r="AL42" s="1"/>
-      <c r="AM42" s="1"/>
-      <c r="AN42" s="1"/>
-      <c r="AO42" s="1"/>
-      <c r="AP42" s="1"/>
-      <c r="AQ42" s="1"/>
-      <c r="AR42" s="1"/>
-      <c r="AS42" s="1"/>
-      <c r="AT42" s="1"/>
-      <c r="AU42" s="1"/>
-      <c r="AV42" s="1"/>
-      <c r="AW42" s="1"/>
-      <c r="AX42" s="1"/>
-      <c r="AY42" s="1"/>
-      <c r="AZ42" s="1"/>
-      <c r="BA42" s="1"/>
-      <c r="BB42" s="1"/>
-      <c r="BC42" s="1"/>
-      <c r="BD42" s="1"/>
-      <c r="BE42" s="1"/>
-      <c r="BF42" s="1"/>
-      <c r="BG42" s="1"/>
-      <c r="BH42" s="1"/>
-      <c r="BI42" s="1"/>
-      <c r="BJ42" s="1"/>
-      <c r="BK42" s="1"/>
-      <c r="BL42" s="1"/>
-      <c r="BM42" s="1"/>
-      <c r="BN42" s="1"/>
-      <c r="BO42" s="1"/>
-      <c r="BP42" s="1"/>
-      <c r="BQ42" s="1"/>
-      <c r="BR42" s="1"/>
-      <c r="BS42" s="1"/>
-      <c r="BT42" s="1"/>
-      <c r="BU42" s="1"/>
-      <c r="BV42" s="1"/>
-      <c r="BW42" s="1"/>
-      <c r="BX42" s="1"/>
-      <c r="BY42" s="1"/>
-      <c r="BZ42" s="1"/>
-      <c r="CA42" s="1"/>
-      <c r="CB42" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="43" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>199</v>
+        <v>69</v>
       </c>
       <c r="B43" s="3">
         <v>1</v>
@@ -5439,57 +5577,546 @@
       <c r="C43" s="3">
         <v>1</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="F43" s="1"/>
+      <c r="I43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="44" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="S43" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="T43" s="3" t="s">
-        <v>166</v>
-      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ44" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR44" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+      <c r="AV45" s="1"/>
+      <c r="AW45" s="1"/>
+      <c r="AX45" s="1"/>
+      <c r="AY45" s="1"/>
+      <c r="AZ45" s="1"/>
+      <c r="BA45" s="1"/>
+      <c r="BB45" s="1"/>
+      <c r="BC45" s="1"/>
+      <c r="BD45" s="1"/>
+      <c r="BE45" s="1"/>
+      <c r="BF45" s="1"/>
+      <c r="BG45" s="1"/>
+      <c r="BH45" s="1"/>
+      <c r="BI45" s="1"/>
+      <c r="BJ45" s="1"/>
+      <c r="BK45" s="1"/>
+      <c r="BL45" s="1"/>
+      <c r="BM45" s="1"/>
+      <c r="BN45" s="1"/>
+      <c r="BO45" s="1"/>
+      <c r="BP45" s="1"/>
+      <c r="BQ45" s="1"/>
+      <c r="BR45" s="1"/>
+      <c r="BS45" s="1"/>
+      <c r="BT45" s="1"/>
+      <c r="BU45" s="1"/>
+      <c r="BV45" s="1"/>
+      <c r="BW45" s="1"/>
+      <c r="BX45" s="1"/>
+      <c r="BY45" s="1"/>
+      <c r="BZ45" s="1"/>
+      <c r="CA45" s="1"/>
+      <c r="CB45" s="1"/>
+    </row>
+    <row r="46" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="3">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="3">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR47" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:80" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" s="14">
+        <v>1</v>
+      </c>
+      <c r="C48" s="15">
+        <v>1</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I48" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="L48" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="M48" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="N48" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="O48" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="P48" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q48" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="R48" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="S48" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="T48" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="U48" s="15"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="15"/>
+      <c r="Y48" s="15"/>
+      <c r="Z48" s="15"/>
+      <c r="AA48" s="15"/>
+      <c r="AB48" s="15"/>
+      <c r="AC48" s="15"/>
+      <c r="AD48" s="15"/>
+      <c r="AE48" s="15"/>
+      <c r="AF48" s="15"/>
+      <c r="AG48" s="15"/>
+      <c r="AH48" s="15"/>
+      <c r="AI48" s="15"/>
+      <c r="AJ48" s="15"/>
+      <c r="AK48" s="15"/>
+      <c r="AL48" s="15"/>
+      <c r="AM48" s="15"/>
+      <c r="AN48" s="15"/>
+      <c r="AO48" s="15"/>
+      <c r="AP48" s="15"/>
+      <c r="AQ48" s="15"/>
+      <c r="AR48" s="15"/>
+      <c r="AS48" s="15"/>
+      <c r="AT48" s="15"/>
+      <c r="AU48" s="15"/>
+      <c r="AV48" s="15"/>
+      <c r="AW48" s="15"/>
+      <c r="AX48" s="15"/>
+      <c r="AY48" s="15"/>
+      <c r="AZ48" s="15"/>
+      <c r="BA48" s="15"/>
+      <c r="BB48" s="15"/>
+      <c r="BC48" s="15"/>
+      <c r="BD48" s="15"/>
+      <c r="BE48" s="15"/>
+      <c r="BF48" s="15"/>
+      <c r="BG48" s="15"/>
+      <c r="BH48" s="15"/>
+      <c r="BI48" s="15"/>
+      <c r="BJ48" s="15"/>
+      <c r="BK48" s="15"/>
+      <c r="BL48" s="15"/>
+      <c r="BM48" s="15"/>
+      <c r="BN48" s="15"/>
+      <c r="BO48" s="15"/>
+      <c r="BP48" s="15"/>
+      <c r="BQ48" s="15"/>
+      <c r="BR48" s="15"/>
+      <c r="BS48" s="15"/>
+      <c r="BT48" s="15"/>
+      <c r="BU48" s="15"/>
+      <c r="BV48" s="15"/>
+      <c r="BW48" s="15"/>
+      <c r="BX48" s="15"/>
+      <c r="BY48" s="15"/>
+      <c r="BZ48" s="15"/>
+      <c r="CA48" s="15"/>
+      <c r="CB48" s="15"/>
+    </row>
+    <row r="49" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="14">
+        <v>1</v>
+      </c>
+      <c r="C49" s="15">
+        <v>1</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="L49" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="N49" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="O49" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="P49" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q49" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="R49" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="S49" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="T49" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="15"/>
+      <c r="AE49" s="15"/>
+      <c r="AF49" s="15"/>
+      <c r="AG49" s="15"/>
+      <c r="AH49" s="15"/>
+      <c r="AI49" s="15"/>
+      <c r="AJ49" s="15"/>
+      <c r="AK49" s="15"/>
+      <c r="AL49" s="15"/>
+      <c r="AM49" s="15"/>
+      <c r="AN49" s="15"/>
+      <c r="AO49" s="15"/>
+      <c r="AP49" s="15"/>
+      <c r="AQ49" s="15"/>
+      <c r="AR49" s="15"/>
+      <c r="AS49" s="15"/>
+      <c r="AT49" s="15"/>
+      <c r="AU49" s="15"/>
+      <c r="AV49" s="15"/>
+      <c r="AW49" s="15"/>
+      <c r="AX49" s="15"/>
+      <c r="AY49" s="15"/>
+      <c r="AZ49" s="15"/>
+      <c r="BA49" s="15"/>
+      <c r="BB49" s="15"/>
+      <c r="BC49" s="15"/>
+      <c r="BD49" s="15"/>
+      <c r="BE49" s="15"/>
+      <c r="BF49" s="15"/>
+      <c r="BG49" s="15"/>
+      <c r="BH49" s="15"/>
+      <c r="BI49" s="15"/>
+      <c r="BJ49" s="15"/>
+      <c r="BK49" s="15"/>
+      <c r="BL49" s="15"/>
+      <c r="BM49" s="15"/>
+      <c r="BN49" s="15"/>
+      <c r="BO49" s="15"/>
+      <c r="BP49" s="15"/>
+      <c r="BQ49" s="15"/>
+      <c r="BR49" s="15"/>
+      <c r="BS49" s="15"/>
+      <c r="BT49" s="15"/>
+      <c r="BU49" s="15"/>
+      <c r="BV49" s="15"/>
+      <c r="BW49" s="15"/>
+      <c r="BX49" s="15"/>
+      <c r="BY49" s="15"/>
+      <c r="BZ49" s="15"/>
+      <c r="CA49" s="15"/>
+      <c r="CB49" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5501,7 +6128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78C0EF4-5C5D-4057-B6F9-0807F6421FD3}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
@@ -5534,51 +6161,51 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -5588,41 +6215,41 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -5631,48 +6258,48 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
@@ -5681,48 +6308,48 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3">
         <v>2</v>
@@ -5731,48 +6358,48 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
@@ -5781,51 +6408,51 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
@@ -5834,51 +6461,51 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -5887,51 +6514,51 @@
         <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
@@ -5940,51 +6567,51 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -5993,51 +6620,51 @@
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -6046,51 +6673,51 @@
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -6099,51 +6726,51 @@
         <v>1</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -6152,51 +6779,51 @@
         <v>1</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -6205,46 +6832,46 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -6254,6 +6881,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000F90F7D2D1347F4BB0CCD727D5CC9762" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="96db2c72d060ace5f6ae886d428ced4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="49c1c420-9681-49d8-b218-968a87430846" xmlns:ns3="eb87e36b-823b-4123-a7f7-e23d77fa1380" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a266703cd7f2ec4b1c7ac0fdc7be08e" ns2:_="" ns3:_="">
     <xsd:import namespace="49c1c420-9681-49d8-b218-968a87430846"/>
@@ -6470,7 +7107,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6479,17 +7116,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B476FF2-FEF5-4294-9EAA-A9E98F38C815}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6508,20 +7145,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Common.xlsx
+++ b/Common.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyasingh4\Downloads\testdata26feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0604D1-9300-48FF-899B-611CB52139E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9607455D-ED80-49F9-AEDD-C25B7E4F88DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{14BBE7D7-F4A5-4C34-90C9-DE785192D015}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="209">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -731,7 +731,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1136,9 +1136,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A795E6E-7511-44A3-A4D9-48157A1FAE45}">
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="81" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23:F24"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3082,11 +3082,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4882D51-693E-4E9F-9DE1-50E177B50B59}">
-  <dimension ref="A1:CB49"/>
+  <dimension ref="A1:CB48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U46" sqref="U46"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB46" sqref="AB46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -5878,7 +5878,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:80" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:80" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="15" t="s">
         <v>74</v>
       </c>
@@ -5894,7 +5894,6 @@
       <c r="E48" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="15"/>
       <c r="G48" s="15" t="s">
         <v>78</v>
       </c>
@@ -5937,186 +5936,6 @@
       <c r="T48" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="U48" s="15"/>
-      <c r="V48" s="15"/>
-      <c r="W48" s="15"/>
-      <c r="X48" s="15"/>
-      <c r="Y48" s="15"/>
-      <c r="Z48" s="15"/>
-      <c r="AA48" s="15"/>
-      <c r="AB48" s="15"/>
-      <c r="AC48" s="15"/>
-      <c r="AD48" s="15"/>
-      <c r="AE48" s="15"/>
-      <c r="AF48" s="15"/>
-      <c r="AG48" s="15"/>
-      <c r="AH48" s="15"/>
-      <c r="AI48" s="15"/>
-      <c r="AJ48" s="15"/>
-      <c r="AK48" s="15"/>
-      <c r="AL48" s="15"/>
-      <c r="AM48" s="15"/>
-      <c r="AN48" s="15"/>
-      <c r="AO48" s="15"/>
-      <c r="AP48" s="15"/>
-      <c r="AQ48" s="15"/>
-      <c r="AR48" s="15"/>
-      <c r="AS48" s="15"/>
-      <c r="AT48" s="15"/>
-      <c r="AU48" s="15"/>
-      <c r="AV48" s="15"/>
-      <c r="AW48" s="15"/>
-      <c r="AX48" s="15"/>
-      <c r="AY48" s="15"/>
-      <c r="AZ48" s="15"/>
-      <c r="BA48" s="15"/>
-      <c r="BB48" s="15"/>
-      <c r="BC48" s="15"/>
-      <c r="BD48" s="15"/>
-      <c r="BE48" s="15"/>
-      <c r="BF48" s="15"/>
-      <c r="BG48" s="15"/>
-      <c r="BH48" s="15"/>
-      <c r="BI48" s="15"/>
-      <c r="BJ48" s="15"/>
-      <c r="BK48" s="15"/>
-      <c r="BL48" s="15"/>
-      <c r="BM48" s="15"/>
-      <c r="BN48" s="15"/>
-      <c r="BO48" s="15"/>
-      <c r="BP48" s="15"/>
-      <c r="BQ48" s="15"/>
-      <c r="BR48" s="15"/>
-      <c r="BS48" s="15"/>
-      <c r="BT48" s="15"/>
-      <c r="BU48" s="15"/>
-      <c r="BV48" s="15"/>
-      <c r="BW48" s="15"/>
-      <c r="BX48" s="15"/>
-      <c r="BY48" s="15"/>
-      <c r="BZ48" s="15"/>
-      <c r="CA48" s="15"/>
-      <c r="CB48" s="15"/>
-    </row>
-    <row r="49" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="14">
-        <v>1</v>
-      </c>
-      <c r="C49" s="15">
-        <v>1</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="I49" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="J49" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="K49" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="L49" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="M49" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="N49" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="O49" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="P49" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q49" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="R49" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="S49" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="T49" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="15"/>
-      <c r="AA49" s="15"/>
-      <c r="AB49" s="15"/>
-      <c r="AC49" s="15"/>
-      <c r="AD49" s="15"/>
-      <c r="AE49" s="15"/>
-      <c r="AF49" s="15"/>
-      <c r="AG49" s="15"/>
-      <c r="AH49" s="15"/>
-      <c r="AI49" s="15"/>
-      <c r="AJ49" s="15"/>
-      <c r="AK49" s="15"/>
-      <c r="AL49" s="15"/>
-      <c r="AM49" s="15"/>
-      <c r="AN49" s="15"/>
-      <c r="AO49" s="15"/>
-      <c r="AP49" s="15"/>
-      <c r="AQ49" s="15"/>
-      <c r="AR49" s="15"/>
-      <c r="AS49" s="15"/>
-      <c r="AT49" s="15"/>
-      <c r="AU49" s="15"/>
-      <c r="AV49" s="15"/>
-      <c r="AW49" s="15"/>
-      <c r="AX49" s="15"/>
-      <c r="AY49" s="15"/>
-      <c r="AZ49" s="15"/>
-      <c r="BA49" s="15"/>
-      <c r="BB49" s="15"/>
-      <c r="BC49" s="15"/>
-      <c r="BD49" s="15"/>
-      <c r="BE49" s="15"/>
-      <c r="BF49" s="15"/>
-      <c r="BG49" s="15"/>
-      <c r="BH49" s="15"/>
-      <c r="BI49" s="15"/>
-      <c r="BJ49" s="15"/>
-      <c r="BK49" s="15"/>
-      <c r="BL49" s="15"/>
-      <c r="BM49" s="15"/>
-      <c r="BN49" s="15"/>
-      <c r="BO49" s="15"/>
-      <c r="BP49" s="15"/>
-      <c r="BQ49" s="15"/>
-      <c r="BR49" s="15"/>
-      <c r="BS49" s="15"/>
-      <c r="BT49" s="15"/>
-      <c r="BU49" s="15"/>
-      <c r="BV49" s="15"/>
-      <c r="BW49" s="15"/>
-      <c r="BX49" s="15"/>
-      <c r="BY49" s="15"/>
-      <c r="BZ49" s="15"/>
-      <c r="CA49" s="15"/>
-      <c r="CB49" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6881,13 +6700,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7108,20 +6926,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="49c1c420-9681-49d8-b218-968a87430846">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7146,9 +6963,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8789720-D88D-497D-80D1-92A9E4C32464}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7C9F2CE-24EB-4B9D-A913-24F6E79DAAB2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="49c1c420-9681-49d8-b218-968a87430846"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
